--- a/Data/Data_detail.xlsx
+++ b/Data/Data_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\ML-AIS\ML-AIS-Sensor-Project-2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68C73E-E5C6-4ABC-B64C-E5E7245C4A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0D808C-40B4-4E7B-8F6E-48EE003C720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="6" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -1802,7 +1802,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3631B9C7-AD5B-4DC5-B8AD-D76456CD77CE}" name="Table9" displayName="Table9" ref="A3:K731" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A3:K731" xr:uid="{3631B9C7-AD5B-4DC5-B8AD-D76456CD77CE}"/>
+  <autoFilter ref="A3:K731" xr:uid="{3631B9C7-AD5B-4DC5-B8AD-D76456CD77CE}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="H5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A53B651C-ECAC-4132-9B88-F103938C4171}" name="No." dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{CFF5DEF8-8986-4F13-BEA5-42A6B79BBB1D}" name="Seat" dataDxfId="9"/>
@@ -2121,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361F4F10-0476-4963-AC2D-7046C82C03A0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2328,8 +2334,8 @@
         <v>147</v>
       </c>
       <c r="E19" s="63">
-        <f>SUM(E22:E32)</f>
-        <v>45700</v>
+        <f>SUM(E22:E35)</f>
+        <v>50500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6055,7 +6061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC73546-9EB4-4A00-A039-6A06B5CF19DF}">
   <dimension ref="A1:O731"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6124,7 +6132,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1">
       <c r="A4" s="49">
         <v>1</v>
       </c>
@@ -6168,7 +6176,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" hidden="1">
       <c r="A5" s="49">
         <v>2</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1">
       <c r="A6" s="49">
         <v>3</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7" s="49">
         <v>4</v>
       </c>
@@ -6300,7 +6308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1">
       <c r="A8" s="49">
         <v>5</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9" s="49">
         <v>6</v>
       </c>
@@ -6388,7 +6396,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1">
       <c r="A10" s="49">
         <v>7</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11" s="49">
         <v>8</v>
       </c>
@@ -6476,7 +6484,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12" s="49">
         <v>9</v>
       </c>
@@ -6520,7 +6528,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13" s="49">
         <v>10</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14" s="49">
         <v>11</v>
       </c>
@@ -6608,7 +6616,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1">
       <c r="A15" s="49">
         <v>12</v>
       </c>
@@ -6652,7 +6660,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16" s="49">
         <v>13</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" s="49">
         <v>14</v>
       </c>
@@ -6737,7 +6745,7 @@
         <v>23760</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" s="49">
         <v>15</v>
       </c>
@@ -6771,7 +6779,7 @@
       </c>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" s="49">
         <v>16</v>
       </c>
@@ -6805,7 +6813,7 @@
       </c>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="49">
         <v>17</v>
       </c>
@@ -6839,7 +6847,7 @@
       </c>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" s="49">
         <v>18</v>
       </c>
@@ -6873,7 +6881,7 @@
       </c>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" s="49">
         <v>19</v>
       </c>
@@ -6907,7 +6915,7 @@
       </c>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" s="49">
         <v>20</v>
       </c>
@@ -6941,7 +6949,7 @@
       </c>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" s="49">
         <v>21</v>
       </c>
@@ -6975,7 +6983,7 @@
       </c>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" s="49">
         <v>22</v>
       </c>
@@ -7009,7 +7017,7 @@
       </c>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="49">
         <v>23</v>
       </c>
@@ -7043,7 +7051,7 @@
       </c>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" s="49">
         <v>24</v>
       </c>
@@ -7077,7 +7085,7 @@
       </c>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" s="49">
         <v>25</v>
       </c>
@@ -7111,7 +7119,7 @@
       </c>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" s="49">
         <v>26</v>
       </c>
@@ -7145,7 +7153,7 @@
       </c>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" s="49">
         <v>27</v>
       </c>
@@ -7179,7 +7187,7 @@
       </c>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" s="49">
         <v>28</v>
       </c>
@@ -7213,7 +7221,7 @@
       </c>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" s="49">
         <v>29</v>
       </c>
@@ -7247,7 +7255,7 @@
       </c>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="49">
         <v>30</v>
       </c>
@@ -7281,7 +7289,7 @@
       </c>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="49">
         <v>31</v>
       </c>
@@ -7315,7 +7323,7 @@
       </c>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="49">
         <v>32</v>
       </c>
@@ -10613,7 +10621,7 @@
       </c>
       <c r="K131" s="50"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132" s="49">
         <v>129</v>
       </c>
@@ -10647,7 +10655,7 @@
       </c>
       <c r="K132" s="50"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="49">
         <v>130</v>
       </c>
@@ -10681,7 +10689,7 @@
       </c>
       <c r="K133" s="50"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134" s="49">
         <v>131</v>
       </c>
@@ -10715,7 +10723,7 @@
       </c>
       <c r="K134" s="50"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="49">
         <v>132</v>
       </c>
@@ -10749,7 +10757,7 @@
       </c>
       <c r="K135" s="50"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="49">
         <v>133</v>
       </c>
@@ -10783,7 +10791,7 @@
       </c>
       <c r="K136" s="50"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="49">
         <v>134</v>
       </c>
@@ -10817,7 +10825,7 @@
       </c>
       <c r="K137" s="50"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="49">
         <v>135</v>
       </c>
@@ -10851,7 +10859,7 @@
       </c>
       <c r="K138" s="50"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139" s="49">
         <v>136</v>
       </c>
@@ -10885,7 +10893,7 @@
       </c>
       <c r="K139" s="50"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140" s="49">
         <v>137</v>
       </c>
@@ -10919,7 +10927,7 @@
       </c>
       <c r="K140" s="50"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141" s="49">
         <v>138</v>
       </c>
@@ -10953,7 +10961,7 @@
       </c>
       <c r="K141" s="50"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142" s="49">
         <v>139</v>
       </c>
@@ -10987,7 +10995,7 @@
       </c>
       <c r="K142" s="50"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143" s="49">
         <v>140</v>
       </c>
@@ -11021,7 +11029,7 @@
       </c>
       <c r="K143" s="50"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144" s="49">
         <v>141</v>
       </c>
@@ -11055,7 +11063,7 @@
       </c>
       <c r="K144" s="50"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145" s="49">
         <v>142</v>
       </c>
@@ -11089,7 +11097,7 @@
       </c>
       <c r="K145" s="50"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="49">
         <v>143</v>
       </c>
@@ -11123,7 +11131,7 @@
       </c>
       <c r="K146" s="50"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147" s="49">
         <v>144</v>
       </c>
@@ -11157,7 +11165,7 @@
       </c>
       <c r="K147" s="50"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="49">
         <v>145</v>
       </c>
@@ -11191,7 +11199,7 @@
       </c>
       <c r="K148" s="50"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149" s="49">
         <v>146</v>
       </c>
@@ -11225,7 +11233,7 @@
       </c>
       <c r="K149" s="50"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="49">
         <v>147</v>
       </c>
@@ -11259,7 +11267,7 @@
       </c>
       <c r="K150" s="50"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151" s="49">
         <v>148</v>
       </c>
@@ -11293,7 +11301,7 @@
       </c>
       <c r="K151" s="50"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152" s="49">
         <v>149</v>
       </c>
@@ -11327,7 +11335,7 @@
       </c>
       <c r="K152" s="50"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153" s="49">
         <v>150</v>
       </c>
@@ -11361,7 +11369,7 @@
       </c>
       <c r="K153" s="50"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154" s="49">
         <v>151</v>
       </c>
@@ -11395,7 +11403,7 @@
       </c>
       <c r="K154" s="50"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155" s="49">
         <v>152</v>
       </c>
@@ -11429,7 +11437,7 @@
       </c>
       <c r="K155" s="50"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156" s="49">
         <v>153</v>
       </c>
@@ -11463,7 +11471,7 @@
       </c>
       <c r="K156" s="50"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157" s="49">
         <v>154</v>
       </c>
@@ -11497,7 +11505,7 @@
       </c>
       <c r="K157" s="50"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158" s="49">
         <v>155</v>
       </c>
@@ -11531,7 +11539,7 @@
       </c>
       <c r="K158" s="50"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159" s="49">
         <v>156</v>
       </c>
@@ -11565,7 +11573,7 @@
       </c>
       <c r="K159" s="50"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160" s="49">
         <v>157</v>
       </c>
@@ -11599,7 +11607,7 @@
       </c>
       <c r="K160" s="50"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="49">
         <v>158</v>
       </c>
@@ -11633,7 +11641,7 @@
       </c>
       <c r="K161" s="50"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" s="49">
         <v>159</v>
       </c>
@@ -11667,7 +11675,7 @@
       </c>
       <c r="K162" s="50"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="49">
         <v>160</v>
       </c>
@@ -11701,7 +11709,7 @@
       </c>
       <c r="K163" s="50"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164" s="49">
         <v>161</v>
       </c>
@@ -11735,7 +11743,7 @@
       </c>
       <c r="K164" s="50"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="49">
         <v>162</v>
       </c>
@@ -11769,7 +11777,7 @@
       </c>
       <c r="K165" s="50"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166" s="49">
         <v>163</v>
       </c>
@@ -11803,7 +11811,7 @@
       </c>
       <c r="K166" s="50"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" s="49">
         <v>164</v>
       </c>
@@ -11837,7 +11845,7 @@
       </c>
       <c r="K167" s="50"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168" s="49">
         <v>165</v>
       </c>
@@ -11871,7 +11879,7 @@
       </c>
       <c r="K168" s="50"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169" s="49">
         <v>166</v>
       </c>
@@ -11905,7 +11913,7 @@
       </c>
       <c r="K169" s="50"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" s="49">
         <v>167</v>
       </c>
@@ -11939,7 +11947,7 @@
       </c>
       <c r="K170" s="50"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" s="49">
         <v>168</v>
       </c>
@@ -11973,7 +11981,7 @@
       </c>
       <c r="K171" s="50"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="49">
         <v>169</v>
       </c>
@@ -12007,7 +12015,7 @@
       </c>
       <c r="K172" s="50"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" s="49">
         <v>170</v>
       </c>
@@ -12041,7 +12049,7 @@
       </c>
       <c r="K173" s="50"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" s="49">
         <v>171</v>
       </c>
@@ -12075,7 +12083,7 @@
       </c>
       <c r="K174" s="50"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" s="49">
         <v>172</v>
       </c>
@@ -12109,7 +12117,7 @@
       </c>
       <c r="K175" s="50"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" s="49">
         <v>173</v>
       </c>
@@ -12143,7 +12151,7 @@
       </c>
       <c r="K176" s="50"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" s="49">
         <v>174</v>
       </c>
@@ -12177,7 +12185,7 @@
       </c>
       <c r="K177" s="50"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="49">
         <v>175</v>
       </c>
@@ -12211,7 +12219,7 @@
       </c>
       <c r="K178" s="50"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179" s="49">
         <v>176</v>
       </c>
@@ -12245,7 +12253,7 @@
       </c>
       <c r="K179" s="50"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="49">
         <v>177</v>
       </c>
@@ -12279,7 +12287,7 @@
       </c>
       <c r="K180" s="50"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181" s="49">
         <v>178</v>
       </c>
@@ -12313,7 +12321,7 @@
       </c>
       <c r="K181" s="50"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" s="49">
         <v>179</v>
       </c>
@@ -12347,7 +12355,7 @@
       </c>
       <c r="K182" s="50"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" s="49">
         <v>180</v>
       </c>
@@ -12381,7 +12389,7 @@
       </c>
       <c r="K183" s="50"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184" s="49">
         <v>181</v>
       </c>
@@ -12415,7 +12423,7 @@
       </c>
       <c r="K184" s="50"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185" s="49">
         <v>182</v>
       </c>
@@ -12449,7 +12457,7 @@
       </c>
       <c r="K185" s="50"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186" s="49">
         <v>183</v>
       </c>
@@ -12483,7 +12491,7 @@
       </c>
       <c r="K186" s="50"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187" s="49">
         <v>184</v>
       </c>
@@ -12517,7 +12525,7 @@
       </c>
       <c r="K187" s="50"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188" s="49">
         <v>185</v>
       </c>
@@ -12551,7 +12559,7 @@
       </c>
       <c r="K188" s="50"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" s="49">
         <v>186</v>
       </c>
@@ -12585,7 +12593,7 @@
       </c>
       <c r="K189" s="50"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190" s="49">
         <v>187</v>
       </c>
@@ -12619,7 +12627,7 @@
       </c>
       <c r="K190" s="50"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191" s="49">
         <v>188</v>
       </c>
@@ -12653,7 +12661,7 @@
       </c>
       <c r="K191" s="50"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192" s="49">
         <v>189</v>
       </c>
@@ -12687,7 +12695,7 @@
       </c>
       <c r="K192" s="50"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193" s="49">
         <v>190</v>
       </c>
@@ -12721,7 +12729,7 @@
       </c>
       <c r="K193" s="50"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194" s="49">
         <v>191</v>
       </c>
@@ -12755,7 +12763,7 @@
       </c>
       <c r="K194" s="50"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195" s="49">
         <v>192</v>
       </c>
@@ -12789,7 +12797,7 @@
       </c>
       <c r="K195" s="50"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196" s="49">
         <v>193</v>
       </c>
@@ -12823,7 +12831,7 @@
       </c>
       <c r="K196" s="50"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197" s="49">
         <v>194</v>
       </c>
@@ -12857,7 +12865,7 @@
       </c>
       <c r="K197" s="50"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198" s="49">
         <v>195</v>
       </c>
@@ -12891,7 +12899,7 @@
       </c>
       <c r="K198" s="50"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="49">
         <v>196</v>
       </c>
@@ -12925,7 +12933,7 @@
       </c>
       <c r="K199" s="50"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="49">
         <v>197</v>
       </c>
@@ -12959,7 +12967,7 @@
       </c>
       <c r="K200" s="50"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201" s="49">
         <v>198</v>
       </c>
@@ -12993,7 +13001,7 @@
       </c>
       <c r="K201" s="50"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202" s="49">
         <v>199</v>
       </c>
@@ -13027,7 +13035,7 @@
       </c>
       <c r="K202" s="50"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203" s="49">
         <v>200</v>
       </c>
@@ -13061,7 +13069,7 @@
       </c>
       <c r="K203" s="50"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204" s="49">
         <v>201</v>
       </c>
@@ -13095,7 +13103,7 @@
       </c>
       <c r="K204" s="50"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" hidden="1">
       <c r="A205" s="49">
         <v>202</v>
       </c>
@@ -13129,7 +13137,7 @@
       </c>
       <c r="K205" s="50"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206" s="49">
         <v>203</v>
       </c>
@@ -13163,7 +13171,7 @@
       </c>
       <c r="K206" s="50"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207" s="49">
         <v>204</v>
       </c>
@@ -13197,7 +13205,7 @@
       </c>
       <c r="K207" s="50"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208" s="49">
         <v>205</v>
       </c>
@@ -13231,7 +13239,7 @@
       </c>
       <c r="K208" s="50"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209" s="49">
         <v>206</v>
       </c>
@@ -13265,7 +13273,7 @@
       </c>
       <c r="K209" s="50"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210" s="49">
         <v>207</v>
       </c>
@@ -13299,7 +13307,7 @@
       </c>
       <c r="K210" s="50"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211" s="49">
         <v>208</v>
       </c>
@@ -13333,7 +13341,7 @@
       </c>
       <c r="K211" s="50"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212" s="49">
         <v>209</v>
       </c>
@@ -13367,7 +13375,7 @@
       </c>
       <c r="K212" s="50"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213" s="49">
         <v>210</v>
       </c>
@@ -13401,7 +13409,7 @@
       </c>
       <c r="K213" s="50"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214" s="49">
         <v>211</v>
       </c>
@@ -13435,7 +13443,7 @@
       </c>
       <c r="K214" s="50"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215" s="49">
         <v>212</v>
       </c>
@@ -13469,7 +13477,7 @@
       </c>
       <c r="K215" s="50"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216" s="49">
         <v>213</v>
       </c>
@@ -13503,7 +13511,7 @@
       </c>
       <c r="K216" s="50"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217" s="49">
         <v>214</v>
       </c>
@@ -13537,7 +13545,7 @@
       </c>
       <c r="K217" s="50"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218" s="49">
         <v>215</v>
       </c>
@@ -13571,7 +13579,7 @@
       </c>
       <c r="K218" s="50"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" s="49">
         <v>216</v>
       </c>
@@ -13605,7 +13613,7 @@
       </c>
       <c r="K219" s="50"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220" s="49">
         <v>217</v>
       </c>
@@ -13639,7 +13647,7 @@
       </c>
       <c r="K220" s="50"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221" s="49">
         <v>218</v>
       </c>
@@ -13673,7 +13681,7 @@
       </c>
       <c r="K221" s="50"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222" s="49">
         <v>219</v>
       </c>
@@ -13707,7 +13715,7 @@
       </c>
       <c r="K222" s="50"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" s="49">
         <v>220</v>
       </c>
@@ -13741,7 +13749,7 @@
       </c>
       <c r="K223" s="50"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224" s="49">
         <v>221</v>
       </c>
@@ -13775,7 +13783,7 @@
       </c>
       <c r="K224" s="50"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225" s="49">
         <v>222</v>
       </c>
@@ -13809,7 +13817,7 @@
       </c>
       <c r="K225" s="50"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" s="49">
         <v>223</v>
       </c>
@@ -13843,7 +13851,7 @@
       </c>
       <c r="K226" s="50"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227" s="49">
         <v>224</v>
       </c>
@@ -13877,7 +13885,7 @@
       </c>
       <c r="K227" s="50"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228" s="49">
         <v>225</v>
       </c>
@@ -13911,7 +13919,7 @@
       </c>
       <c r="K228" s="50"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" s="49">
         <v>226</v>
       </c>
@@ -13945,7 +13953,7 @@
       </c>
       <c r="K229" s="50"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230" s="49">
         <v>227</v>
       </c>
@@ -13979,7 +13987,7 @@
       </c>
       <c r="K230" s="50"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" s="49">
         <v>228</v>
       </c>
@@ -14013,7 +14021,7 @@
       </c>
       <c r="K231" s="50"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232" s="49">
         <v>229</v>
       </c>
@@ -14047,7 +14055,7 @@
       </c>
       <c r="K232" s="50"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233" s="49">
         <v>230</v>
       </c>
@@ -14081,7 +14089,7 @@
       </c>
       <c r="K233" s="50"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234" s="49">
         <v>231</v>
       </c>
@@ -14115,7 +14123,7 @@
       </c>
       <c r="K234" s="50"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235" s="49">
         <v>232</v>
       </c>
@@ -14149,7 +14157,7 @@
       </c>
       <c r="K235" s="50"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236" s="49">
         <v>233</v>
       </c>
@@ -14183,7 +14191,7 @@
       </c>
       <c r="K236" s="50"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237" s="49">
         <v>234</v>
       </c>
@@ -14217,7 +14225,7 @@
       </c>
       <c r="K237" s="50"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" s="49">
         <v>235</v>
       </c>
@@ -14251,7 +14259,7 @@
       </c>
       <c r="K238" s="50"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" s="49">
         <v>236</v>
       </c>
@@ -14285,7 +14293,7 @@
       </c>
       <c r="K239" s="50"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240" s="49">
         <v>237</v>
       </c>
@@ -14319,7 +14327,7 @@
       </c>
       <c r="K240" s="50"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" s="49">
         <v>238</v>
       </c>
@@ -14353,7 +14361,7 @@
       </c>
       <c r="K241" s="50"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" s="49">
         <v>239</v>
       </c>
@@ -14387,7 +14395,7 @@
       </c>
       <c r="K242" s="50"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243" s="49">
         <v>240</v>
       </c>
@@ -14421,7 +14429,7 @@
       </c>
       <c r="K243" s="50"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" s="49">
         <v>241</v>
       </c>
@@ -14455,7 +14463,7 @@
       </c>
       <c r="K244" s="50"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245" s="49">
         <v>242</v>
       </c>
@@ -14489,7 +14497,7 @@
       </c>
       <c r="K245" s="50"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" s="49">
         <v>243</v>
       </c>
@@ -14523,7 +14531,7 @@
       </c>
       <c r="K246" s="50"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" s="49">
         <v>244</v>
       </c>
@@ -14557,7 +14565,7 @@
       </c>
       <c r="K247" s="50"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" s="49">
         <v>245</v>
       </c>
@@ -14591,7 +14599,7 @@
       </c>
       <c r="K248" s="50"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="49">
         <v>246</v>
       </c>
@@ -14625,7 +14633,7 @@
       </c>
       <c r="K249" s="50"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250" s="49">
         <v>247</v>
       </c>
@@ -14659,7 +14667,7 @@
       </c>
       <c r="K250" s="50"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251" s="49">
         <v>248</v>
       </c>
@@ -14693,7 +14701,7 @@
       </c>
       <c r="K251" s="50"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252" s="49">
         <v>249</v>
       </c>
@@ -14727,7 +14735,7 @@
       </c>
       <c r="K252" s="50"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" s="49">
         <v>250</v>
       </c>
@@ -14761,7 +14769,7 @@
       </c>
       <c r="K253" s="50"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" s="49">
         <v>251</v>
       </c>
@@ -14795,7 +14803,7 @@
       </c>
       <c r="K254" s="50"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" s="49">
         <v>252</v>
       </c>
@@ -14829,7 +14837,7 @@
       </c>
       <c r="K255" s="50"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" s="49">
         <v>253</v>
       </c>
@@ -14863,7 +14871,7 @@
       </c>
       <c r="K256" s="50"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257" s="49">
         <v>254</v>
       </c>
@@ -14897,7 +14905,7 @@
       </c>
       <c r="K257" s="50"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" s="49">
         <v>255</v>
       </c>
@@ -14931,7 +14939,7 @@
       </c>
       <c r="K258" s="50"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="49">
         <v>256</v>
       </c>
@@ -14965,7 +14973,7 @@
       </c>
       <c r="K259" s="50"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="49">
         <v>257</v>
       </c>
@@ -14999,7 +15007,7 @@
       </c>
       <c r="K260" s="50"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" s="49">
         <v>258</v>
       </c>
@@ -15033,7 +15041,7 @@
       </c>
       <c r="K261" s="50"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262" s="49">
         <v>259</v>
       </c>
@@ -15067,7 +15075,7 @@
       </c>
       <c r="K262" s="50"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" s="49">
         <v>260</v>
       </c>
@@ -15101,7 +15109,7 @@
       </c>
       <c r="K263" s="50"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264" s="49">
         <v>261</v>
       </c>
@@ -15135,7 +15143,7 @@
       </c>
       <c r="K264" s="50"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" s="49">
         <v>262</v>
       </c>
@@ -15169,7 +15177,7 @@
       </c>
       <c r="K265" s="50"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" s="49">
         <v>263</v>
       </c>
@@ -15203,7 +15211,7 @@
       </c>
       <c r="K266" s="50"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" s="49">
         <v>264</v>
       </c>
@@ -15237,7 +15245,7 @@
       </c>
       <c r="K267" s="50"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268" s="49">
         <v>265</v>
       </c>
@@ -15271,7 +15279,7 @@
       </c>
       <c r="K268" s="50"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269" s="49">
         <v>266</v>
       </c>
@@ -15305,7 +15313,7 @@
       </c>
       <c r="K269" s="50"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270" s="49">
         <v>267</v>
       </c>
@@ -15339,7 +15347,7 @@
       </c>
       <c r="K270" s="50"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271" s="49">
         <v>268</v>
       </c>
@@ -15373,7 +15381,7 @@
       </c>
       <c r="K271" s="50"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272" s="49">
         <v>269</v>
       </c>
@@ -15407,7 +15415,7 @@
       </c>
       <c r="K272" s="50"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273" s="49">
         <v>270</v>
       </c>
@@ -15441,7 +15449,7 @@
       </c>
       <c r="K273" s="50"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274" s="49">
         <v>271</v>
       </c>
@@ -15475,7 +15483,7 @@
       </c>
       <c r="K274" s="50"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275" s="49">
         <v>272</v>
       </c>
@@ -15509,7 +15517,7 @@
       </c>
       <c r="K275" s="50"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276" s="49">
         <v>273</v>
       </c>
@@ -15543,7 +15551,7 @@
       </c>
       <c r="K276" s="50"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277" s="49">
         <v>274</v>
       </c>
@@ -15577,7 +15585,7 @@
       </c>
       <c r="K277" s="50"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278" s="49">
         <v>275</v>
       </c>
@@ -15611,7 +15619,7 @@
       </c>
       <c r="K278" s="50"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279" s="49">
         <v>276</v>
       </c>
@@ -15645,7 +15653,7 @@
       </c>
       <c r="K279" s="50"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280" s="49">
         <v>277</v>
       </c>
@@ -15679,7 +15687,7 @@
       </c>
       <c r="K280" s="50"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281" s="49">
         <v>278</v>
       </c>
@@ -15713,7 +15721,7 @@
       </c>
       <c r="K281" s="50"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282" s="49">
         <v>279</v>
       </c>
@@ -15747,7 +15755,7 @@
       </c>
       <c r="K282" s="50"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283" s="49">
         <v>280</v>
       </c>
@@ -15781,7 +15789,7 @@
       </c>
       <c r="K283" s="50"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284" s="49">
         <v>281</v>
       </c>
@@ -15815,7 +15823,7 @@
       </c>
       <c r="K284" s="50"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285" s="49">
         <v>282</v>
       </c>
@@ -15849,7 +15857,7 @@
       </c>
       <c r="K285" s="50"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286" s="49">
         <v>283</v>
       </c>
@@ -15883,7 +15891,7 @@
       </c>
       <c r="K286" s="50"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287" s="49">
         <v>284</v>
       </c>
@@ -15917,7 +15925,7 @@
       </c>
       <c r="K287" s="50"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288" s="49">
         <v>285</v>
       </c>
@@ -15951,7 +15959,7 @@
       </c>
       <c r="K288" s="50"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" s="49">
         <v>286</v>
       </c>
@@ -15985,7 +15993,7 @@
       </c>
       <c r="K289" s="50"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290" s="49">
         <v>287</v>
       </c>
@@ -16019,7 +16027,7 @@
       </c>
       <c r="K290" s="50"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" s="49">
         <v>288</v>
       </c>
@@ -16053,7 +16061,7 @@
       </c>
       <c r="K291" s="50"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" s="49">
         <v>289</v>
       </c>
@@ -16087,7 +16095,7 @@
       </c>
       <c r="K292" s="50"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" s="49">
         <v>290</v>
       </c>
@@ -16121,7 +16129,7 @@
       </c>
       <c r="K293" s="50"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" s="49">
         <v>291</v>
       </c>
@@ -16155,7 +16163,7 @@
       </c>
       <c r="K294" s="50"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" s="49">
         <v>292</v>
       </c>
@@ -16189,7 +16197,7 @@
       </c>
       <c r="K295" s="50"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" s="49">
         <v>293</v>
       </c>
@@ -16223,7 +16231,7 @@
       </c>
       <c r="K296" s="50"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" s="49">
         <v>294</v>
       </c>
@@ -16257,7 +16265,7 @@
       </c>
       <c r="K297" s="50"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" s="49">
         <v>295</v>
       </c>
@@ -16291,7 +16299,7 @@
       </c>
       <c r="K298" s="50"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" s="49">
         <v>296</v>
       </c>
@@ -16325,7 +16333,7 @@
       </c>
       <c r="K299" s="50"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" s="49">
         <v>297</v>
       </c>
@@ -16359,7 +16367,7 @@
       </c>
       <c r="K300" s="50"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" s="49">
         <v>298</v>
       </c>
@@ -16393,7 +16401,7 @@
       </c>
       <c r="K301" s="50"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" s="49">
         <v>299</v>
       </c>
@@ -16427,7 +16435,7 @@
       </c>
       <c r="K302" s="50"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" s="49">
         <v>300</v>
       </c>
@@ -16461,7 +16469,7 @@
       </c>
       <c r="K303" s="50"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" s="49">
         <v>301</v>
       </c>
@@ -16495,7 +16503,7 @@
       </c>
       <c r="K304" s="50"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" s="49">
         <v>302</v>
       </c>
@@ -16529,7 +16537,7 @@
       </c>
       <c r="K305" s="50"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" s="49">
         <v>303</v>
       </c>
@@ -16563,7 +16571,7 @@
       </c>
       <c r="K306" s="50"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" s="49">
         <v>304</v>
       </c>
@@ -16597,7 +16605,7 @@
       </c>
       <c r="K307" s="50"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" s="49">
         <v>305</v>
       </c>
@@ -16631,7 +16639,7 @@
       </c>
       <c r="K308" s="50"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309" s="49">
         <v>306</v>
       </c>
@@ -16665,7 +16673,7 @@
       </c>
       <c r="K309" s="50"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310" s="49">
         <v>307</v>
       </c>
@@ -16699,7 +16707,7 @@
       </c>
       <c r="K310" s="50"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" hidden="1">
       <c r="A311" s="49">
         <v>308</v>
       </c>
@@ -16733,7 +16741,7 @@
       </c>
       <c r="K311" s="50"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" hidden="1">
       <c r="A312" s="49">
         <v>309</v>
       </c>
@@ -16767,7 +16775,7 @@
       </c>
       <c r="K312" s="50"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" hidden="1">
       <c r="A313" s="49">
         <v>310</v>
       </c>
@@ -16801,7 +16809,7 @@
       </c>
       <c r="K313" s="50"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" hidden="1">
       <c r="A314" s="49">
         <v>311</v>
       </c>
@@ -16835,7 +16843,7 @@
       </c>
       <c r="K314" s="50"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" hidden="1">
       <c r="A315" s="49">
         <v>312</v>
       </c>
@@ -16869,7 +16877,7 @@
       </c>
       <c r="K315" s="50"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" hidden="1">
       <c r="A316" s="49">
         <v>313</v>
       </c>
@@ -16903,7 +16911,7 @@
       </c>
       <c r="K316" s="50"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" hidden="1">
       <c r="A317" s="49">
         <v>314</v>
       </c>
@@ -16937,7 +16945,7 @@
       </c>
       <c r="K317" s="50"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" hidden="1">
       <c r="A318" s="49">
         <v>315</v>
       </c>
@@ -16971,7 +16979,7 @@
       </c>
       <c r="K318" s="50"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" hidden="1">
       <c r="A319" s="49">
         <v>316</v>
       </c>
@@ -17005,7 +17013,7 @@
       </c>
       <c r="K319" s="50"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" hidden="1">
       <c r="A320" s="49">
         <v>317</v>
       </c>
@@ -17039,7 +17047,7 @@
       </c>
       <c r="K320" s="50"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" hidden="1">
       <c r="A321" s="49">
         <v>318</v>
       </c>
@@ -17073,7 +17081,7 @@
       </c>
       <c r="K321" s="50"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" hidden="1">
       <c r="A322" s="49">
         <v>319</v>
       </c>
@@ -17107,7 +17115,7 @@
       </c>
       <c r="K322" s="50"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323" s="49">
         <v>320</v>
       </c>
@@ -17141,7 +17149,7 @@
       </c>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" hidden="1">
       <c r="A324" s="49">
         <v>321</v>
       </c>
@@ -17175,7 +17183,7 @@
       </c>
       <c r="K324" s="50"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" hidden="1">
       <c r="A325" s="49">
         <v>322</v>
       </c>
@@ -17209,7 +17217,7 @@
       </c>
       <c r="K325" s="50"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" hidden="1">
       <c r="A326" s="49">
         <v>323</v>
       </c>
@@ -17243,7 +17251,7 @@
       </c>
       <c r="K326" s="50"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" hidden="1">
       <c r="A327" s="49">
         <v>324</v>
       </c>
@@ -17277,7 +17285,7 @@
       </c>
       <c r="K327" s="50"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" hidden="1">
       <c r="A328" s="49">
         <v>325</v>
       </c>
@@ -17311,7 +17319,7 @@
       </c>
       <c r="K328" s="50"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" hidden="1">
       <c r="A329" s="49">
         <v>326</v>
       </c>
@@ -17345,7 +17353,7 @@
       </c>
       <c r="K329" s="50"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" hidden="1">
       <c r="A330" s="49">
         <v>327</v>
       </c>
@@ -17379,7 +17387,7 @@
       </c>
       <c r="K330" s="50"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" hidden="1">
       <c r="A331" s="49">
         <v>328</v>
       </c>
@@ -17413,7 +17421,7 @@
       </c>
       <c r="K331" s="50"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" hidden="1">
       <c r="A332" s="49">
         <v>329</v>
       </c>
@@ -17447,7 +17455,7 @@
       </c>
       <c r="K332" s="50"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333" s="49">
         <v>330</v>
       </c>
@@ -17481,7 +17489,7 @@
       </c>
       <c r="K333" s="50"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" hidden="1">
       <c r="A334" s="49">
         <v>331</v>
       </c>
@@ -17515,7 +17523,7 @@
       </c>
       <c r="K334" s="50"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335" s="49">
         <v>332</v>
       </c>
@@ -17549,7 +17557,7 @@
       </c>
       <c r="K335" s="50"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" hidden="1">
       <c r="A336" s="49">
         <v>333</v>
       </c>
@@ -17583,7 +17591,7 @@
       </c>
       <c r="K336" s="50"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" hidden="1">
       <c r="A337" s="49">
         <v>334</v>
       </c>
@@ -17617,7 +17625,7 @@
       </c>
       <c r="K337" s="50"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" hidden="1">
       <c r="A338" s="49">
         <v>335</v>
       </c>
@@ -17651,7 +17659,7 @@
       </c>
       <c r="K338" s="50"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" hidden="1">
       <c r="A339" s="49">
         <v>336</v>
       </c>
@@ -17685,7 +17693,7 @@
       </c>
       <c r="K339" s="50"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" hidden="1">
       <c r="A340" s="49">
         <v>337</v>
       </c>
@@ -17719,7 +17727,7 @@
       </c>
       <c r="K340" s="50"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" hidden="1">
       <c r="A341" s="49">
         <v>338</v>
       </c>
@@ -17753,7 +17761,7 @@
       </c>
       <c r="K341" s="50"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" hidden="1">
       <c r="A342" s="49">
         <v>339</v>
       </c>
@@ -17787,7 +17795,7 @@
       </c>
       <c r="K342" s="50"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" hidden="1">
       <c r="A343" s="49">
         <v>340</v>
       </c>
@@ -17821,7 +17829,7 @@
       </c>
       <c r="K343" s="50"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" hidden="1">
       <c r="A344" s="49">
         <v>341</v>
       </c>
@@ -17855,7 +17863,7 @@
       </c>
       <c r="K344" s="50"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345" s="49">
         <v>342</v>
       </c>
@@ -17889,7 +17897,7 @@
       </c>
       <c r="K345" s="50"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" hidden="1">
       <c r="A346" s="49">
         <v>343</v>
       </c>
@@ -17923,7 +17931,7 @@
       </c>
       <c r="K346" s="50"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" hidden="1">
       <c r="A347" s="49">
         <v>344</v>
       </c>
@@ -17957,7 +17965,7 @@
       </c>
       <c r="K347" s="50"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348" s="49">
         <v>345</v>
       </c>
@@ -17991,7 +17999,7 @@
       </c>
       <c r="K348" s="50"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" hidden="1">
       <c r="A349" s="49">
         <v>346</v>
       </c>
@@ -18025,7 +18033,7 @@
       </c>
       <c r="K349" s="50"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" hidden="1">
       <c r="A350" s="49">
         <v>347</v>
       </c>
@@ -18059,7 +18067,7 @@
       </c>
       <c r="K350" s="50"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" hidden="1">
       <c r="A351" s="49">
         <v>348</v>
       </c>
@@ -18093,7 +18101,7 @@
       </c>
       <c r="K351" s="50"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352" s="49">
         <v>349</v>
       </c>
@@ -18127,7 +18135,7 @@
       </c>
       <c r="K352" s="50"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353" s="49">
         <v>350</v>
       </c>
@@ -18161,7 +18169,7 @@
       </c>
       <c r="K353" s="50"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" hidden="1">
       <c r="A354" s="49">
         <v>351</v>
       </c>
@@ -18195,7 +18203,7 @@
       </c>
       <c r="K354" s="50"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" hidden="1">
       <c r="A355" s="49">
         <v>352</v>
       </c>
@@ -18229,7 +18237,7 @@
       </c>
       <c r="K355" s="50"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" hidden="1">
       <c r="A356" s="49">
         <v>353</v>
       </c>
@@ -18263,7 +18271,7 @@
       </c>
       <c r="K356" s="50"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" hidden="1">
       <c r="A357" s="49">
         <v>354</v>
       </c>
@@ -18297,7 +18305,7 @@
       </c>
       <c r="K357" s="50"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" hidden="1">
       <c r="A358" s="49">
         <v>355</v>
       </c>
@@ -18331,7 +18339,7 @@
       </c>
       <c r="K358" s="50"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" hidden="1">
       <c r="A359" s="49">
         <v>356</v>
       </c>
@@ -18365,7 +18373,7 @@
       </c>
       <c r="K359" s="50"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" hidden="1">
       <c r="A360" s="49">
         <v>357</v>
       </c>
@@ -18399,7 +18407,7 @@
       </c>
       <c r="K360" s="50"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" hidden="1">
       <c r="A361" s="49">
         <v>358</v>
       </c>
@@ -18433,7 +18441,7 @@
       </c>
       <c r="K361" s="50"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" hidden="1">
       <c r="A362" s="49">
         <v>359</v>
       </c>
@@ -18467,7 +18475,7 @@
       </c>
       <c r="K362" s="50"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" hidden="1">
       <c r="A363" s="49">
         <v>360</v>
       </c>
@@ -18501,7 +18509,7 @@
       </c>
       <c r="K363" s="50"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" hidden="1">
       <c r="A364" s="49">
         <v>361</v>
       </c>
@@ -18535,7 +18543,7 @@
       </c>
       <c r="K364" s="50"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" hidden="1">
       <c r="A365" s="49">
         <v>362</v>
       </c>
@@ -18569,7 +18577,7 @@
       </c>
       <c r="K365" s="50"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" hidden="1">
       <c r="A366" s="49">
         <v>363</v>
       </c>
@@ -18603,7 +18611,7 @@
       </c>
       <c r="K366" s="50"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" hidden="1">
       <c r="A367" s="49">
         <v>364</v>
       </c>
@@ -18637,7 +18645,7 @@
       </c>
       <c r="K367" s="50"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" hidden="1">
       <c r="A368" s="49">
         <v>365</v>
       </c>
@@ -18671,7 +18679,7 @@
       </c>
       <c r="K368" s="50"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" hidden="1">
       <c r="A369" s="49">
         <v>366</v>
       </c>
@@ -18705,7 +18713,7 @@
       </c>
       <c r="K369" s="50"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" hidden="1">
       <c r="A370" s="49">
         <v>367</v>
       </c>
@@ -18739,7 +18747,7 @@
       </c>
       <c r="K370" s="50"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" hidden="1">
       <c r="A371" s="49">
         <v>368</v>
       </c>
@@ -18773,7 +18781,7 @@
       </c>
       <c r="K371" s="50"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" hidden="1">
       <c r="A372" s="49">
         <v>369</v>
       </c>
@@ -18807,7 +18815,7 @@
       </c>
       <c r="K372" s="50"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" hidden="1">
       <c r="A373" s="49">
         <v>370</v>
       </c>
@@ -18841,7 +18849,7 @@
       </c>
       <c r="K373" s="50"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" hidden="1">
       <c r="A374" s="49">
         <v>371</v>
       </c>
@@ -18875,7 +18883,7 @@
       </c>
       <c r="K374" s="50"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" hidden="1">
       <c r="A375" s="49">
         <v>372</v>
       </c>
@@ -18909,7 +18917,7 @@
       </c>
       <c r="K375" s="50"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" hidden="1">
       <c r="A376" s="49">
         <v>373</v>
       </c>
@@ -18943,7 +18951,7 @@
       </c>
       <c r="K376" s="50"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" hidden="1">
       <c r="A377" s="49">
         <v>374</v>
       </c>
@@ -18977,7 +18985,7 @@
       </c>
       <c r="K377" s="50"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" hidden="1">
       <c r="A378" s="49">
         <v>375</v>
       </c>
@@ -19011,7 +19019,7 @@
       </c>
       <c r="K378" s="50"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" hidden="1">
       <c r="A379" s="49">
         <v>376</v>
       </c>
@@ -19045,7 +19053,7 @@
       </c>
       <c r="K379" s="50"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" hidden="1">
       <c r="A380" s="49">
         <v>377</v>
       </c>
@@ -19079,7 +19087,7 @@
       </c>
       <c r="K380" s="50"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" hidden="1">
       <c r="A381" s="49">
         <v>378</v>
       </c>
@@ -19113,7 +19121,7 @@
       </c>
       <c r="K381" s="50"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" hidden="1">
       <c r="A382" s="49">
         <v>379</v>
       </c>
@@ -19147,7 +19155,7 @@
       </c>
       <c r="K382" s="50"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" hidden="1">
       <c r="A383" s="49">
         <v>380</v>
       </c>
@@ -19181,7 +19189,7 @@
       </c>
       <c r="K383" s="50"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" hidden="1">
       <c r="A384" s="49">
         <v>381</v>
       </c>
@@ -19215,7 +19223,7 @@
       </c>
       <c r="K384" s="50"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" hidden="1">
       <c r="A385" s="49">
         <v>382</v>
       </c>
@@ -19249,7 +19257,7 @@
       </c>
       <c r="K385" s="50"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" hidden="1">
       <c r="A386" s="49">
         <v>383</v>
       </c>
@@ -19283,7 +19291,7 @@
       </c>
       <c r="K386" s="50"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" hidden="1">
       <c r="A387" s="49">
         <v>384</v>
       </c>
@@ -19317,7 +19325,7 @@
       </c>
       <c r="K387" s="50"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" hidden="1">
       <c r="A388" s="49">
         <v>385</v>
       </c>
@@ -19351,7 +19359,7 @@
       </c>
       <c r="K388" s="50"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" hidden="1">
       <c r="A389" s="49">
         <v>386</v>
       </c>
@@ -19385,7 +19393,7 @@
       </c>
       <c r="K389" s="50"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" hidden="1">
       <c r="A390" s="49">
         <v>387</v>
       </c>
@@ -19419,7 +19427,7 @@
       </c>
       <c r="K390" s="50"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" hidden="1">
       <c r="A391" s="49">
         <v>388</v>
       </c>
@@ -19453,7 +19461,7 @@
       </c>
       <c r="K391" s="50"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" hidden="1">
       <c r="A392" s="49">
         <v>389</v>
       </c>
@@ -19487,7 +19495,7 @@
       </c>
       <c r="K392" s="50"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" hidden="1">
       <c r="A393" s="49">
         <v>390</v>
       </c>
@@ -19521,7 +19529,7 @@
       </c>
       <c r="K393" s="50"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" hidden="1">
       <c r="A394" s="49">
         <v>391</v>
       </c>
@@ -19555,7 +19563,7 @@
       </c>
       <c r="K394" s="50"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" hidden="1">
       <c r="A395" s="49">
         <v>392</v>
       </c>
@@ -19589,7 +19597,7 @@
       </c>
       <c r="K395" s="50"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" hidden="1">
       <c r="A396" s="49">
         <v>393</v>
       </c>
@@ -19623,7 +19631,7 @@
       </c>
       <c r="K396" s="50"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" hidden="1">
       <c r="A397" s="49">
         <v>394</v>
       </c>
@@ -19657,7 +19665,7 @@
       </c>
       <c r="K397" s="50"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" hidden="1">
       <c r="A398" s="49">
         <v>395</v>
       </c>
@@ -19691,7 +19699,7 @@
       </c>
       <c r="K398" s="50"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" hidden="1">
       <c r="A399" s="49">
         <v>396</v>
       </c>
@@ -19725,7 +19733,7 @@
       </c>
       <c r="K399" s="50"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" hidden="1">
       <c r="A400" s="49">
         <v>397</v>
       </c>
@@ -19759,7 +19767,7 @@
       </c>
       <c r="K400" s="50"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" hidden="1">
       <c r="A401" s="49">
         <v>398</v>
       </c>
@@ -19793,7 +19801,7 @@
       </c>
       <c r="K401" s="50"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" hidden="1">
       <c r="A402" s="49">
         <v>399</v>
       </c>
@@ -19827,7 +19835,7 @@
       </c>
       <c r="K402" s="50"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" hidden="1">
       <c r="A403" s="49">
         <v>400</v>
       </c>
@@ -19861,7 +19869,7 @@
       </c>
       <c r="K403" s="50"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" hidden="1">
       <c r="A404" s="49">
         <v>401</v>
       </c>
@@ -19895,7 +19903,7 @@
       </c>
       <c r="K404" s="50"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" hidden="1">
       <c r="A405" s="49">
         <v>402</v>
       </c>
@@ -19929,7 +19937,7 @@
       </c>
       <c r="K405" s="50"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" hidden="1">
       <c r="A406" s="49">
         <v>403</v>
       </c>
@@ -19963,7 +19971,7 @@
       </c>
       <c r="K406" s="50"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" hidden="1">
       <c r="A407" s="49">
         <v>404</v>
       </c>
@@ -19997,7 +20005,7 @@
       </c>
       <c r="K407" s="50"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" hidden="1">
       <c r="A408" s="49">
         <v>405</v>
       </c>
@@ -20031,7 +20039,7 @@
       </c>
       <c r="K408" s="50"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" hidden="1">
       <c r="A409" s="49">
         <v>406</v>
       </c>
@@ -20065,7 +20073,7 @@
       </c>
       <c r="K409" s="50"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" hidden="1">
       <c r="A410" s="49">
         <v>407</v>
       </c>
@@ -20099,7 +20107,7 @@
       </c>
       <c r="K410" s="50"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" hidden="1">
       <c r="A411" s="49">
         <v>408</v>
       </c>
@@ -20133,7 +20141,7 @@
       </c>
       <c r="K411" s="50"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" hidden="1">
       <c r="A412" s="49">
         <v>409</v>
       </c>
@@ -20167,7 +20175,7 @@
       </c>
       <c r="K412" s="50"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" hidden="1">
       <c r="A413" s="49">
         <v>410</v>
       </c>
@@ -20201,7 +20209,7 @@
       </c>
       <c r="K413" s="50"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" hidden="1">
       <c r="A414" s="49">
         <v>411</v>
       </c>
@@ -20235,7 +20243,7 @@
       </c>
       <c r="K414" s="50"/>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" hidden="1">
       <c r="A415" s="49">
         <v>412</v>
       </c>
@@ -20269,7 +20277,7 @@
       </c>
       <c r="K415" s="50"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" hidden="1">
       <c r="A416" s="49">
         <v>413</v>
       </c>
@@ -20303,7 +20311,7 @@
       </c>
       <c r="K416" s="50"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" hidden="1">
       <c r="A417" s="49">
         <v>414</v>
       </c>
@@ -20337,7 +20345,7 @@
       </c>
       <c r="K417" s="50"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" hidden="1">
       <c r="A418" s="49">
         <v>415</v>
       </c>
@@ -20371,7 +20379,7 @@
       </c>
       <c r="K418" s="50"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" hidden="1">
       <c r="A419" s="49">
         <v>416</v>
       </c>
@@ -20405,7 +20413,7 @@
       </c>
       <c r="K419" s="50"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" hidden="1">
       <c r="A420" s="49">
         <v>417</v>
       </c>
@@ -20439,7 +20447,7 @@
       </c>
       <c r="K420" s="50"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" hidden="1">
       <c r="A421" s="49">
         <v>418</v>
       </c>
@@ -20473,7 +20481,7 @@
       </c>
       <c r="K421" s="50"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" hidden="1">
       <c r="A422" s="49">
         <v>419</v>
       </c>
@@ -20507,7 +20515,7 @@
       </c>
       <c r="K422" s="50"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" hidden="1">
       <c r="A423" s="49">
         <v>420</v>
       </c>
@@ -20541,7 +20549,7 @@
       </c>
       <c r="K423" s="50"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" hidden="1">
       <c r="A424" s="49">
         <v>421</v>
       </c>
@@ -20575,7 +20583,7 @@
       </c>
       <c r="K424" s="50"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" hidden="1">
       <c r="A425" s="49">
         <v>422</v>
       </c>
@@ -20609,7 +20617,7 @@
       </c>
       <c r="K425" s="50"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" hidden="1">
       <c r="A426" s="49">
         <v>423</v>
       </c>
@@ -20643,7 +20651,7 @@
       </c>
       <c r="K426" s="50"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" hidden="1">
       <c r="A427" s="49">
         <v>424</v>
       </c>
@@ -20677,7 +20685,7 @@
       </c>
       <c r="K427" s="50"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" hidden="1">
       <c r="A428" s="49">
         <v>425</v>
       </c>
@@ -20711,7 +20719,7 @@
       </c>
       <c r="K428" s="50"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" hidden="1">
       <c r="A429" s="49">
         <v>426</v>
       </c>
@@ -20745,7 +20753,7 @@
       </c>
       <c r="K429" s="50"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" hidden="1">
       <c r="A430" s="49">
         <v>427</v>
       </c>
@@ -20779,7 +20787,7 @@
       </c>
       <c r="K430" s="50"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" hidden="1">
       <c r="A431" s="49">
         <v>428</v>
       </c>
@@ -20813,7 +20821,7 @@
       </c>
       <c r="K431" s="50"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" hidden="1">
       <c r="A432" s="49">
         <v>429</v>
       </c>
@@ -20847,7 +20855,7 @@
       </c>
       <c r="K432" s="50"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" hidden="1">
       <c r="A433" s="49">
         <v>430</v>
       </c>
@@ -20881,7 +20889,7 @@
       </c>
       <c r="K433" s="50"/>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" hidden="1">
       <c r="A434" s="49">
         <v>431</v>
       </c>
@@ -20915,7 +20923,7 @@
       </c>
       <c r="K434" s="50"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" hidden="1">
       <c r="A435" s="49">
         <v>432</v>
       </c>
@@ -20949,7 +20957,7 @@
       </c>
       <c r="K435" s="50"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" hidden="1">
       <c r="A436" s="49">
         <v>433</v>
       </c>
@@ -20983,7 +20991,7 @@
       </c>
       <c r="K436" s="50"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" hidden="1">
       <c r="A437" s="49">
         <v>434</v>
       </c>
@@ -21017,7 +21025,7 @@
       </c>
       <c r="K437" s="50"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" hidden="1">
       <c r="A438" s="49">
         <v>435</v>
       </c>
@@ -21051,7 +21059,7 @@
       </c>
       <c r="K438" s="50"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" hidden="1">
       <c r="A439" s="49">
         <v>436</v>
       </c>
@@ -21085,7 +21093,7 @@
       </c>
       <c r="K439" s="50"/>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" hidden="1">
       <c r="A440" s="49">
         <v>437</v>
       </c>
@@ -21119,7 +21127,7 @@
       </c>
       <c r="K440" s="50"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" hidden="1">
       <c r="A441" s="49">
         <v>438</v>
       </c>
@@ -21153,7 +21161,7 @@
       </c>
       <c r="K441" s="50"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" hidden="1">
       <c r="A442" s="49">
         <v>439</v>
       </c>
@@ -21187,7 +21195,7 @@
       </c>
       <c r="K442" s="50"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" hidden="1">
       <c r="A443" s="49">
         <v>440</v>
       </c>
@@ -21221,7 +21229,7 @@
       </c>
       <c r="K443" s="50"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" hidden="1">
       <c r="A444" s="49">
         <v>441</v>
       </c>
@@ -21255,7 +21263,7 @@
       </c>
       <c r="K444" s="50"/>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" hidden="1">
       <c r="A445" s="49">
         <v>442</v>
       </c>
@@ -21289,7 +21297,7 @@
       </c>
       <c r="K445" s="50"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" hidden="1">
       <c r="A446" s="49">
         <v>443</v>
       </c>
@@ -21323,7 +21331,7 @@
       </c>
       <c r="K446" s="50"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" hidden="1">
       <c r="A447" s="49">
         <v>444</v>
       </c>
@@ -21357,7 +21365,7 @@
       </c>
       <c r="K447" s="50"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" hidden="1">
       <c r="A448" s="49">
         <v>445</v>
       </c>
@@ -21391,7 +21399,7 @@
       </c>
       <c r="K448" s="50"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" hidden="1">
       <c r="A449" s="49">
         <v>446</v>
       </c>
@@ -21425,7 +21433,7 @@
       </c>
       <c r="K449" s="50"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" hidden="1">
       <c r="A450" s="49">
         <v>447</v>
       </c>
@@ -21459,7 +21467,7 @@
       </c>
       <c r="K450" s="50"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" hidden="1">
       <c r="A451" s="49">
         <v>448</v>
       </c>
@@ -21493,7 +21501,7 @@
       </c>
       <c r="K451" s="50"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" hidden="1">
       <c r="A452" s="49">
         <v>449</v>
       </c>
@@ -21527,7 +21535,7 @@
       </c>
       <c r="K452" s="50"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" hidden="1">
       <c r="A453" s="49">
         <v>450</v>
       </c>
@@ -21561,7 +21569,7 @@
       </c>
       <c r="K453" s="50"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" hidden="1">
       <c r="A454" s="49">
         <v>451</v>
       </c>
@@ -21595,7 +21603,7 @@
       </c>
       <c r="K454" s="50"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" hidden="1">
       <c r="A455" s="49">
         <v>452</v>
       </c>
@@ -21629,7 +21637,7 @@
       </c>
       <c r="K455" s="50"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" hidden="1">
       <c r="A456" s="49">
         <v>453</v>
       </c>
@@ -21663,7 +21671,7 @@
       </c>
       <c r="K456" s="50"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" hidden="1">
       <c r="A457" s="49">
         <v>454</v>
       </c>
@@ -21697,7 +21705,7 @@
       </c>
       <c r="K457" s="50"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" hidden="1">
       <c r="A458" s="49">
         <v>455</v>
       </c>
@@ -21731,7 +21739,7 @@
       </c>
       <c r="K458" s="50"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" hidden="1">
       <c r="A459" s="49">
         <v>456</v>
       </c>
@@ -21765,7 +21773,7 @@
       </c>
       <c r="K459" s="50"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" hidden="1">
       <c r="A460" s="49">
         <v>457</v>
       </c>
@@ -21799,7 +21807,7 @@
       </c>
       <c r="K460" s="50"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" hidden="1">
       <c r="A461" s="49">
         <v>458</v>
       </c>
@@ -21833,7 +21841,7 @@
       </c>
       <c r="K461" s="50"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" hidden="1">
       <c r="A462" s="49">
         <v>459</v>
       </c>
@@ -21867,7 +21875,7 @@
       </c>
       <c r="K462" s="50"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" hidden="1">
       <c r="A463" s="49">
         <v>460</v>
       </c>
@@ -21901,7 +21909,7 @@
       </c>
       <c r="K463" s="50"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" hidden="1">
       <c r="A464" s="49">
         <v>461</v>
       </c>
@@ -21935,7 +21943,7 @@
       </c>
       <c r="K464" s="50"/>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" hidden="1">
       <c r="A465" s="49">
         <v>462</v>
       </c>
@@ -21969,7 +21977,7 @@
       </c>
       <c r="K465" s="50"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466" s="49">
         <v>463</v>
       </c>
@@ -22003,7 +22011,7 @@
       </c>
       <c r="K466" s="50"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467" s="49">
         <v>464</v>
       </c>
@@ -22037,7 +22045,7 @@
       </c>
       <c r="K467" s="50"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" hidden="1">
       <c r="A468" s="49">
         <v>465</v>
       </c>
@@ -22071,7 +22079,7 @@
       </c>
       <c r="K468" s="50"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" hidden="1">
       <c r="A469" s="49">
         <v>466</v>
       </c>
@@ -22105,7 +22113,7 @@
       </c>
       <c r="K469" s="50"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" hidden="1">
       <c r="A470" s="49">
         <v>467</v>
       </c>
@@ -22139,7 +22147,7 @@
       </c>
       <c r="K470" s="50"/>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" hidden="1">
       <c r="A471" s="49">
         <v>468</v>
       </c>
@@ -22173,7 +22181,7 @@
       </c>
       <c r="K471" s="50"/>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" hidden="1">
       <c r="A472" s="49">
         <v>469</v>
       </c>
@@ -22207,7 +22215,7 @@
       </c>
       <c r="K472" s="50"/>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" hidden="1">
       <c r="A473" s="49">
         <v>470</v>
       </c>
@@ -22241,7 +22249,7 @@
       </c>
       <c r="K473" s="50"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" hidden="1">
       <c r="A474" s="49">
         <v>471</v>
       </c>
@@ -22275,7 +22283,7 @@
       </c>
       <c r="K474" s="50"/>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" hidden="1">
       <c r="A475" s="49">
         <v>472</v>
       </c>
@@ -22309,7 +22317,7 @@
       </c>
       <c r="K475" s="50"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" hidden="1">
       <c r="A476" s="49">
         <v>473</v>
       </c>
@@ -22343,7 +22351,7 @@
       </c>
       <c r="K476" s="50"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" hidden="1">
       <c r="A477" s="49">
         <v>474</v>
       </c>
@@ -22377,7 +22385,7 @@
       </c>
       <c r="K477" s="50"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" hidden="1">
       <c r="A478" s="49">
         <v>475</v>
       </c>
@@ -22411,7 +22419,7 @@
       </c>
       <c r="K478" s="50"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" hidden="1">
       <c r="A479" s="49">
         <v>476</v>
       </c>
@@ -22445,7 +22453,7 @@
       </c>
       <c r="K479" s="50"/>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" hidden="1">
       <c r="A480" s="49">
         <v>477</v>
       </c>
@@ -22479,7 +22487,7 @@
       </c>
       <c r="K480" s="50"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" hidden="1">
       <c r="A481" s="49">
         <v>478</v>
       </c>
@@ -22513,7 +22521,7 @@
       </c>
       <c r="K481" s="50"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" hidden="1">
       <c r="A482" s="49">
         <v>479</v>
       </c>
@@ -22547,7 +22555,7 @@
       </c>
       <c r="K482" s="50"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" hidden="1">
       <c r="A483" s="49">
         <v>480</v>
       </c>
@@ -22581,7 +22589,7 @@
       </c>
       <c r="K483" s="50"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" hidden="1">
       <c r="A484" s="49">
         <v>481</v>
       </c>
@@ -22615,7 +22623,7 @@
       </c>
       <c r="K484" s="50"/>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" hidden="1">
       <c r="A485" s="49">
         <v>482</v>
       </c>
@@ -22649,7 +22657,7 @@
       </c>
       <c r="K485" s="50"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" hidden="1">
       <c r="A486" s="49">
         <v>483</v>
       </c>
@@ -22683,7 +22691,7 @@
       </c>
       <c r="K486" s="50"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" hidden="1">
       <c r="A487" s="49">
         <v>484</v>
       </c>
@@ -22717,7 +22725,7 @@
       </c>
       <c r="K487" s="50"/>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" hidden="1">
       <c r="A488" s="49">
         <v>485</v>
       </c>
@@ -22751,7 +22759,7 @@
       </c>
       <c r="K488" s="50"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" hidden="1">
       <c r="A489" s="49">
         <v>486</v>
       </c>
@@ -22785,7 +22793,7 @@
       </c>
       <c r="K489" s="50"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" hidden="1">
       <c r="A490" s="49">
         <v>487</v>
       </c>
@@ -22819,7 +22827,7 @@
       </c>
       <c r="K490" s="50"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" hidden="1">
       <c r="A491" s="49">
         <v>488</v>
       </c>
@@ -22853,7 +22861,7 @@
       </c>
       <c r="K491" s="50"/>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" hidden="1">
       <c r="A492" s="49">
         <v>489</v>
       </c>
@@ -22887,7 +22895,7 @@
       </c>
       <c r="K492" s="50"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" hidden="1">
       <c r="A493" s="49">
         <v>490</v>
       </c>
@@ -22921,7 +22929,7 @@
       </c>
       <c r="K493" s="50"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" hidden="1">
       <c r="A494" s="49">
         <v>491</v>
       </c>
@@ -22955,7 +22963,7 @@
       </c>
       <c r="K494" s="50"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" hidden="1">
       <c r="A495" s="49">
         <v>492</v>
       </c>
@@ -22989,7 +22997,7 @@
       </c>
       <c r="K495" s="50"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" hidden="1">
       <c r="A496" s="49">
         <v>493</v>
       </c>
@@ -23023,7 +23031,7 @@
       </c>
       <c r="K496" s="50"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" hidden="1">
       <c r="A497" s="49">
         <v>494</v>
       </c>
@@ -23057,7 +23065,7 @@
       </c>
       <c r="K497" s="50"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" hidden="1">
       <c r="A498" s="49">
         <v>495</v>
       </c>
@@ -23091,7 +23099,7 @@
       </c>
       <c r="K498" s="50"/>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" hidden="1">
       <c r="A499" s="49">
         <v>496</v>
       </c>
@@ -23125,7 +23133,7 @@
       </c>
       <c r="K499" s="50"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" hidden="1">
       <c r="A500" s="49">
         <v>497</v>
       </c>
@@ -23159,7 +23167,7 @@
       </c>
       <c r="K500" s="50"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" hidden="1">
       <c r="A501" s="49">
         <v>498</v>
       </c>
@@ -23193,7 +23201,7 @@
       </c>
       <c r="K501" s="50"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" hidden="1">
       <c r="A502" s="49">
         <v>499</v>
       </c>
@@ -23227,7 +23235,7 @@
       </c>
       <c r="K502" s="50"/>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" hidden="1">
       <c r="A503" s="49">
         <v>500</v>
       </c>
@@ -23261,7 +23269,7 @@
       </c>
       <c r="K503" s="50"/>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" hidden="1">
       <c r="A504" s="49">
         <v>501</v>
       </c>
@@ -23295,7 +23303,7 @@
       </c>
       <c r="K504" s="50"/>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" hidden="1">
       <c r="A505" s="49">
         <v>502</v>
       </c>
@@ -23329,7 +23337,7 @@
       </c>
       <c r="K505" s="50"/>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" hidden="1">
       <c r="A506" s="49">
         <v>503</v>
       </c>
@@ -23363,7 +23371,7 @@
       </c>
       <c r="K506" s="50"/>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" hidden="1">
       <c r="A507" s="49">
         <v>504</v>
       </c>
@@ -23397,7 +23405,7 @@
       </c>
       <c r="K507" s="50"/>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" hidden="1">
       <c r="A508" s="49">
         <v>505</v>
       </c>
@@ -23431,7 +23439,7 @@
       </c>
       <c r="K508" s="50"/>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" hidden="1">
       <c r="A509" s="49">
         <v>506</v>
       </c>
@@ -23465,7 +23473,7 @@
       </c>
       <c r="K509" s="50"/>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" hidden="1">
       <c r="A510" s="49">
         <v>507</v>
       </c>
@@ -23499,7 +23507,7 @@
       </c>
       <c r="K510" s="50"/>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" hidden="1">
       <c r="A511" s="49">
         <v>508</v>
       </c>
@@ -23533,7 +23541,7 @@
       </c>
       <c r="K511" s="50"/>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" hidden="1">
       <c r="A512" s="49">
         <v>509</v>
       </c>
@@ -23567,7 +23575,7 @@
       </c>
       <c r="K512" s="50"/>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" hidden="1">
       <c r="A513" s="49">
         <v>510</v>
       </c>
@@ -23601,7 +23609,7 @@
       </c>
       <c r="K513" s="50"/>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" hidden="1">
       <c r="A514" s="49">
         <v>511</v>
       </c>
@@ -23635,7 +23643,7 @@
       </c>
       <c r="K514" s="50"/>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" hidden="1">
       <c r="A515" s="49">
         <v>512</v>
       </c>
@@ -23669,7 +23677,7 @@
       </c>
       <c r="K515" s="50"/>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" hidden="1">
       <c r="A516" s="49">
         <v>513</v>
       </c>
@@ -23703,7 +23711,7 @@
       </c>
       <c r="K516" s="50"/>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" hidden="1">
       <c r="A517" s="49">
         <v>514</v>
       </c>
@@ -23737,7 +23745,7 @@
       </c>
       <c r="K517" s="50"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" hidden="1">
       <c r="A518" s="49">
         <v>515</v>
       </c>
@@ -23771,7 +23779,7 @@
       </c>
       <c r="K518" s="50"/>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" hidden="1">
       <c r="A519" s="49">
         <v>516</v>
       </c>
@@ -23805,7 +23813,7 @@
       </c>
       <c r="K519" s="50"/>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" hidden="1">
       <c r="A520" s="49">
         <v>517</v>
       </c>
@@ -23839,7 +23847,7 @@
       </c>
       <c r="K520" s="50"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" hidden="1">
       <c r="A521" s="49">
         <v>518</v>
       </c>
@@ -23873,7 +23881,7 @@
       </c>
       <c r="K521" s="50"/>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" hidden="1">
       <c r="A522" s="49">
         <v>519</v>
       </c>
@@ -23907,7 +23915,7 @@
       </c>
       <c r="K522" s="50"/>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" hidden="1">
       <c r="A523" s="49">
         <v>520</v>
       </c>
@@ -23941,7 +23949,7 @@
       </c>
       <c r="K523" s="50"/>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" hidden="1">
       <c r="A524" s="49">
         <v>521</v>
       </c>
@@ -23975,7 +23983,7 @@
       </c>
       <c r="K524" s="50"/>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" hidden="1">
       <c r="A525" s="49">
         <v>522</v>
       </c>
@@ -24009,7 +24017,7 @@
       </c>
       <c r="K525" s="50"/>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" hidden="1">
       <c r="A526" s="49">
         <v>523</v>
       </c>
@@ -24043,7 +24051,7 @@
       </c>
       <c r="K526" s="50"/>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" hidden="1">
       <c r="A527" s="49">
         <v>524</v>
       </c>
@@ -24077,7 +24085,7 @@
       </c>
       <c r="K527" s="50"/>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" hidden="1">
       <c r="A528" s="49">
         <v>525</v>
       </c>
@@ -24111,7 +24119,7 @@
       </c>
       <c r="K528" s="50"/>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" hidden="1">
       <c r="A529" s="49">
         <v>526</v>
       </c>
@@ -24145,7 +24153,7 @@
       </c>
       <c r="K529" s="50"/>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" hidden="1">
       <c r="A530" s="49">
         <v>527</v>
       </c>
@@ -24179,7 +24187,7 @@
       </c>
       <c r="K530" s="50"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" hidden="1">
       <c r="A531" s="49">
         <v>528</v>
       </c>
@@ -24213,7 +24221,7 @@
       </c>
       <c r="K531" s="50"/>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" hidden="1">
       <c r="A532" s="49">
         <v>529</v>
       </c>
@@ -24247,7 +24255,7 @@
       </c>
       <c r="K532" s="50"/>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" hidden="1">
       <c r="A533" s="49">
         <v>530</v>
       </c>
@@ -24281,7 +24289,7 @@
       </c>
       <c r="K533" s="50"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" hidden="1">
       <c r="A534" s="49">
         <v>531</v>
       </c>
@@ -24315,7 +24323,7 @@
       </c>
       <c r="K534" s="50"/>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" hidden="1">
       <c r="A535" s="49">
         <v>532</v>
       </c>
@@ -24349,7 +24357,7 @@
       </c>
       <c r="K535" s="50"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" hidden="1">
       <c r="A536" s="49">
         <v>533</v>
       </c>
@@ -24383,7 +24391,7 @@
       </c>
       <c r="K536" s="50"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" hidden="1">
       <c r="A537" s="49">
         <v>534</v>
       </c>
@@ -24417,7 +24425,7 @@
       </c>
       <c r="K537" s="50"/>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" hidden="1">
       <c r="A538" s="49">
         <v>535</v>
       </c>
@@ -24451,7 +24459,7 @@
       </c>
       <c r="K538" s="50"/>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" hidden="1">
       <c r="A539" s="49">
         <v>536</v>
       </c>
@@ -24485,7 +24493,7 @@
       </c>
       <c r="K539" s="50"/>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" hidden="1">
       <c r="A540" s="49">
         <v>537</v>
       </c>
@@ -24519,7 +24527,7 @@
       </c>
       <c r="K540" s="50"/>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" hidden="1">
       <c r="A541" s="49">
         <v>538</v>
       </c>
@@ -24553,7 +24561,7 @@
       </c>
       <c r="K541" s="50"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" hidden="1">
       <c r="A542" s="49">
         <v>539</v>
       </c>
@@ -24587,7 +24595,7 @@
       </c>
       <c r="K542" s="50"/>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" hidden="1">
       <c r="A543" s="49">
         <v>540</v>
       </c>
@@ -24621,7 +24629,7 @@
       </c>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" hidden="1">
       <c r="A544" s="49">
         <v>541</v>
       </c>
@@ -24655,7 +24663,7 @@
       </c>
       <c r="K544" s="50"/>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" hidden="1">
       <c r="A545" s="49">
         <v>542</v>
       </c>
@@ -24689,7 +24697,7 @@
       </c>
       <c r="K545" s="50"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" hidden="1">
       <c r="A546" s="49">
         <v>543</v>
       </c>
@@ -24723,7 +24731,7 @@
       </c>
       <c r="K546" s="50"/>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" hidden="1">
       <c r="A547" s="49">
         <v>544</v>
       </c>
@@ -24757,7 +24765,7 @@
       </c>
       <c r="K547" s="50"/>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" hidden="1">
       <c r="A548" s="49">
         <v>545</v>
       </c>
@@ -24791,7 +24799,7 @@
       </c>
       <c r="K548" s="50"/>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" hidden="1">
       <c r="A549" s="49">
         <v>546</v>
       </c>
@@ -24825,7 +24833,7 @@
       </c>
       <c r="K549" s="50"/>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" hidden="1">
       <c r="A550" s="49">
         <v>547</v>
       </c>
@@ -24859,7 +24867,7 @@
       </c>
       <c r="K550" s="50"/>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" hidden="1">
       <c r="A551" s="49">
         <v>548</v>
       </c>
@@ -24893,7 +24901,7 @@
       </c>
       <c r="K551" s="50"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" hidden="1">
       <c r="A552" s="49">
         <v>549</v>
       </c>
@@ -24927,7 +24935,7 @@
       </c>
       <c r="K552" s="50"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" hidden="1">
       <c r="A553" s="49">
         <v>550</v>
       </c>
@@ -24961,7 +24969,7 @@
       </c>
       <c r="K553" s="50"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" hidden="1">
       <c r="A554" s="49">
         <v>551</v>
       </c>
@@ -24995,7 +25003,7 @@
       </c>
       <c r="K554" s="50"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" hidden="1">
       <c r="A555" s="49">
         <v>552</v>
       </c>
@@ -25029,7 +25037,7 @@
       </c>
       <c r="K555" s="50"/>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" hidden="1">
       <c r="A556" s="49">
         <v>553</v>
       </c>
@@ -25063,7 +25071,7 @@
       </c>
       <c r="K556" s="50"/>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" hidden="1">
       <c r="A557" s="49">
         <v>554</v>
       </c>
@@ -25097,7 +25105,7 @@
       </c>
       <c r="K557" s="50"/>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" hidden="1">
       <c r="A558" s="49">
         <v>555</v>
       </c>
@@ -25131,7 +25139,7 @@
       </c>
       <c r="K558" s="50"/>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" hidden="1">
       <c r="A559" s="49">
         <v>556</v>
       </c>
@@ -25165,7 +25173,7 @@
       </c>
       <c r="K559" s="50"/>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" hidden="1">
       <c r="A560" s="49">
         <v>557</v>
       </c>
@@ -25199,7 +25207,7 @@
       </c>
       <c r="K560" s="50"/>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" hidden="1">
       <c r="A561" s="49">
         <v>558</v>
       </c>
@@ -25233,7 +25241,7 @@
       </c>
       <c r="K561" s="50"/>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" hidden="1">
       <c r="A562" s="49">
         <v>559</v>
       </c>
@@ -25267,7 +25275,7 @@
       </c>
       <c r="K562" s="50"/>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" hidden="1">
       <c r="A563" s="49">
         <v>560</v>
       </c>
@@ -25301,7 +25309,7 @@
       </c>
       <c r="K563" s="50"/>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" hidden="1">
       <c r="A564" s="49">
         <v>561</v>
       </c>
@@ -25335,7 +25343,7 @@
       </c>
       <c r="K564" s="50"/>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" hidden="1">
       <c r="A565" s="49">
         <v>562</v>
       </c>
@@ -25369,7 +25377,7 @@
       </c>
       <c r="K565" s="50"/>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" hidden="1">
       <c r="A566" s="49">
         <v>563</v>
       </c>
@@ -25403,7 +25411,7 @@
       </c>
       <c r="K566" s="50"/>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" hidden="1">
       <c r="A567" s="49">
         <v>564</v>
       </c>
@@ -25437,7 +25445,7 @@
       </c>
       <c r="K567" s="50"/>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" hidden="1">
       <c r="A568" s="49">
         <v>565</v>
       </c>
@@ -25471,7 +25479,7 @@
       </c>
       <c r="K568" s="50"/>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" hidden="1">
       <c r="A569" s="49">
         <v>566</v>
       </c>
@@ -25505,7 +25513,7 @@
       </c>
       <c r="K569" s="50"/>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" hidden="1">
       <c r="A570" s="49">
         <v>567</v>
       </c>
@@ -25539,7 +25547,7 @@
       </c>
       <c r="K570" s="50"/>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" hidden="1">
       <c r="A571" s="49">
         <v>568</v>
       </c>
@@ -25573,7 +25581,7 @@
       </c>
       <c r="K571" s="50"/>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" hidden="1">
       <c r="A572" s="49">
         <v>569</v>
       </c>
@@ -25607,7 +25615,7 @@
       </c>
       <c r="K572" s="50"/>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" hidden="1">
       <c r="A573" s="49">
         <v>570</v>
       </c>
@@ -25641,7 +25649,7 @@
       </c>
       <c r="K573" s="50"/>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" hidden="1">
       <c r="A574" s="49">
         <v>571</v>
       </c>
@@ -25675,7 +25683,7 @@
       </c>
       <c r="K574" s="50"/>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" hidden="1">
       <c r="A575" s="49">
         <v>572</v>
       </c>
@@ -25709,7 +25717,7 @@
       </c>
       <c r="K575" s="50"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" hidden="1">
       <c r="A576" s="49">
         <v>573</v>
       </c>
@@ -25743,7 +25751,7 @@
       </c>
       <c r="K576" s="50"/>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" hidden="1">
       <c r="A577" s="49">
         <v>574</v>
       </c>
@@ -25777,7 +25785,7 @@
       </c>
       <c r="K577" s="50"/>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" hidden="1">
       <c r="A578" s="49">
         <v>575</v>
       </c>
@@ -25811,7 +25819,7 @@
       </c>
       <c r="K578" s="50"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" hidden="1">
       <c r="A579" s="49">
         <v>576</v>
       </c>
@@ -25845,7 +25853,7 @@
       </c>
       <c r="K579" s="50"/>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" hidden="1">
       <c r="A580" s="49">
         <v>577</v>
       </c>
@@ -25879,7 +25887,7 @@
       </c>
       <c r="K580" s="50"/>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" hidden="1">
       <c r="A581" s="49">
         <v>578</v>
       </c>
@@ -25913,7 +25921,7 @@
       </c>
       <c r="K581" s="50"/>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" hidden="1">
       <c r="A582" s="49">
         <v>579</v>
       </c>
@@ -25947,7 +25955,7 @@
       </c>
       <c r="K582" s="50"/>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" hidden="1">
       <c r="A583" s="49">
         <v>580</v>
       </c>
@@ -25981,7 +25989,7 @@
       </c>
       <c r="K583" s="50"/>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" hidden="1">
       <c r="A584" s="49">
         <v>581</v>
       </c>
@@ -26015,7 +26023,7 @@
       </c>
       <c r="K584" s="50"/>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" hidden="1">
       <c r="A585" s="49">
         <v>582</v>
       </c>
@@ -26049,7 +26057,7 @@
       </c>
       <c r="K585" s="50"/>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" hidden="1">
       <c r="A586" s="49">
         <v>583</v>
       </c>
@@ -26083,7 +26091,7 @@
       </c>
       <c r="K586" s="50"/>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" hidden="1">
       <c r="A587" s="49">
         <v>584</v>
       </c>
@@ -26117,7 +26125,7 @@
       </c>
       <c r="K587" s="50"/>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" hidden="1">
       <c r="A588" s="49">
         <v>585</v>
       </c>
@@ -26151,7 +26159,7 @@
       </c>
       <c r="K588" s="50"/>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" hidden="1">
       <c r="A589" s="49">
         <v>586</v>
       </c>
@@ -26185,7 +26193,7 @@
       </c>
       <c r="K589" s="50"/>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" hidden="1">
       <c r="A590" s="49">
         <v>587</v>
       </c>
@@ -26219,7 +26227,7 @@
       </c>
       <c r="K590" s="50"/>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" hidden="1">
       <c r="A591" s="49">
         <v>588</v>
       </c>
@@ -26253,7 +26261,7 @@
       </c>
       <c r="K591" s="50"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" hidden="1">
       <c r="A592" s="49">
         <v>589</v>
       </c>
@@ -26287,7 +26295,7 @@
       </c>
       <c r="K592" s="50"/>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" hidden="1">
       <c r="A593" s="49">
         <v>590</v>
       </c>
@@ -26321,7 +26329,7 @@
       </c>
       <c r="K593" s="50"/>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" hidden="1">
       <c r="A594" s="49">
         <v>591</v>
       </c>
@@ -26355,7 +26363,7 @@
       </c>
       <c r="K594" s="50"/>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" hidden="1">
       <c r="A595" s="49">
         <v>592</v>
       </c>
@@ -26389,7 +26397,7 @@
       </c>
       <c r="K595" s="50"/>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" hidden="1">
       <c r="A596" s="49">
         <v>593</v>
       </c>
@@ -26423,7 +26431,7 @@
       </c>
       <c r="K596" s="50"/>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" hidden="1">
       <c r="A597" s="49">
         <v>594</v>
       </c>
@@ -26457,7 +26465,7 @@
       </c>
       <c r="K597" s="50"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" hidden="1">
       <c r="A598" s="49">
         <v>595</v>
       </c>
@@ -26491,7 +26499,7 @@
       </c>
       <c r="K598" s="50"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" hidden="1">
       <c r="A599" s="49">
         <v>596</v>
       </c>
@@ -26525,7 +26533,7 @@
       </c>
       <c r="K599" s="50"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" hidden="1">
       <c r="A600" s="49">
         <v>597</v>
       </c>
@@ -26559,7 +26567,7 @@
       </c>
       <c r="K600" s="50"/>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" hidden="1">
       <c r="A601" s="49">
         <v>598</v>
       </c>
@@ -26593,7 +26601,7 @@
       </c>
       <c r="K601" s="50"/>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" hidden="1">
       <c r="A602" s="49">
         <v>599</v>
       </c>
@@ -26627,7 +26635,7 @@
       </c>
       <c r="K602" s="50"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" hidden="1">
       <c r="A603" s="49">
         <v>600</v>
       </c>
@@ -26661,7 +26669,7 @@
       </c>
       <c r="K603" s="50"/>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" hidden="1">
       <c r="A604" s="49">
         <v>601</v>
       </c>
@@ -26695,7 +26703,7 @@
       </c>
       <c r="K604" s="50"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" hidden="1">
       <c r="A605" s="49">
         <v>602</v>
       </c>
@@ -26729,7 +26737,7 @@
       </c>
       <c r="K605" s="50"/>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" hidden="1">
       <c r="A606" s="49">
         <v>603</v>
       </c>
@@ -26763,7 +26771,7 @@
       </c>
       <c r="K606" s="50"/>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" hidden="1">
       <c r="A607" s="49">
         <v>604</v>
       </c>
@@ -26797,7 +26805,7 @@
       </c>
       <c r="K607" s="50"/>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" hidden="1">
       <c r="A608" s="49">
         <v>605</v>
       </c>
@@ -26831,7 +26839,7 @@
       </c>
       <c r="K608" s="50"/>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" hidden="1">
       <c r="A609" s="49">
         <v>606</v>
       </c>
@@ -26865,7 +26873,7 @@
       </c>
       <c r="K609" s="50"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" hidden="1">
       <c r="A610" s="49">
         <v>607</v>
       </c>
@@ -26899,7 +26907,7 @@
       </c>
       <c r="K610" s="50"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" hidden="1">
       <c r="A611" s="49">
         <v>608</v>
       </c>
@@ -26933,7 +26941,7 @@
       </c>
       <c r="K611" s="50"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" hidden="1">
       <c r="A612" s="49">
         <v>609</v>
       </c>
@@ -26967,7 +26975,7 @@
       </c>
       <c r="K612" s="50"/>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" hidden="1">
       <c r="A613" s="49">
         <v>610</v>
       </c>
@@ -27001,7 +27009,7 @@
       </c>
       <c r="K613" s="50"/>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" hidden="1">
       <c r="A614" s="49">
         <v>611</v>
       </c>
@@ -27035,7 +27043,7 @@
       </c>
       <c r="K614" s="50"/>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" hidden="1">
       <c r="A615" s="49">
         <v>612</v>
       </c>
@@ -27069,7 +27077,7 @@
       </c>
       <c r="K615" s="50"/>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" hidden="1">
       <c r="A616" s="49">
         <v>613</v>
       </c>
@@ -27103,7 +27111,7 @@
       </c>
       <c r="K616" s="50"/>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" hidden="1">
       <c r="A617" s="49">
         <v>614</v>
       </c>
@@ -27137,7 +27145,7 @@
       </c>
       <c r="K617" s="50"/>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" hidden="1">
       <c r="A618" s="49">
         <v>615</v>
       </c>
@@ -27171,7 +27179,7 @@
       </c>
       <c r="K618" s="50"/>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" hidden="1">
       <c r="A619" s="49">
         <v>616</v>
       </c>
@@ -27205,7 +27213,7 @@
       </c>
       <c r="K619" s="50"/>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" hidden="1">
       <c r="A620" s="49">
         <v>617</v>
       </c>
@@ -27239,7 +27247,7 @@
       </c>
       <c r="K620" s="50"/>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" hidden="1">
       <c r="A621" s="49">
         <v>618</v>
       </c>
@@ -27273,7 +27281,7 @@
       </c>
       <c r="K621" s="50"/>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" hidden="1">
       <c r="A622" s="49">
         <v>619</v>
       </c>
@@ -27307,7 +27315,7 @@
       </c>
       <c r="K622" s="50"/>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" hidden="1">
       <c r="A623" s="49">
         <v>620</v>
       </c>
@@ -27341,7 +27349,7 @@
       </c>
       <c r="K623" s="50"/>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" hidden="1">
       <c r="A624" s="49">
         <v>621</v>
       </c>
@@ -27375,7 +27383,7 @@
       </c>
       <c r="K624" s="50"/>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" hidden="1">
       <c r="A625" s="49">
         <v>622</v>
       </c>
@@ -27409,7 +27417,7 @@
       </c>
       <c r="K625" s="50"/>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" hidden="1">
       <c r="A626" s="49">
         <v>623</v>
       </c>
@@ -27443,7 +27451,7 @@
       </c>
       <c r="K626" s="50"/>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" hidden="1">
       <c r="A627" s="49">
         <v>624</v>
       </c>
@@ -27477,7 +27485,7 @@
       </c>
       <c r="K627" s="50"/>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" hidden="1">
       <c r="A628" s="49">
         <v>625</v>
       </c>
@@ -27511,7 +27519,7 @@
       </c>
       <c r="K628" s="50"/>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" hidden="1">
       <c r="A629" s="49">
         <v>626</v>
       </c>
@@ -27545,7 +27553,7 @@
       </c>
       <c r="K629" s="50"/>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" hidden="1">
       <c r="A630" s="49">
         <v>627</v>
       </c>
@@ -27579,7 +27587,7 @@
       </c>
       <c r="K630" s="50"/>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" hidden="1">
       <c r="A631" s="49">
         <v>628</v>
       </c>
@@ -27613,7 +27621,7 @@
       </c>
       <c r="K631" s="50"/>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" hidden="1">
       <c r="A632" s="49">
         <v>629</v>
       </c>
@@ -27647,7 +27655,7 @@
       </c>
       <c r="K632" s="50"/>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" hidden="1">
       <c r="A633" s="49">
         <v>630</v>
       </c>
@@ -27681,7 +27689,7 @@
       </c>
       <c r="K633" s="50"/>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" hidden="1">
       <c r="A634" s="49">
         <v>631</v>
       </c>
@@ -27715,7 +27723,7 @@
       </c>
       <c r="K634" s="50"/>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" hidden="1">
       <c r="A635" s="49">
         <v>632</v>
       </c>
@@ -27749,7 +27757,7 @@
       </c>
       <c r="K635" s="50"/>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" hidden="1">
       <c r="A636" s="49">
         <v>633</v>
       </c>
@@ -27783,7 +27791,7 @@
       </c>
       <c r="K636" s="50"/>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" hidden="1">
       <c r="A637" s="49">
         <v>634</v>
       </c>
@@ -27817,7 +27825,7 @@
       </c>
       <c r="K637" s="50"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" hidden="1">
       <c r="A638" s="49">
         <v>635</v>
       </c>
@@ -27851,7 +27859,7 @@
       </c>
       <c r="K638" s="50"/>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" hidden="1">
       <c r="A639" s="49">
         <v>636</v>
       </c>
@@ -27885,7 +27893,7 @@
       </c>
       <c r="K639" s="50"/>
     </row>
-    <row r="640" spans="1:11">
+    <row r="640" spans="1:11" hidden="1">
       <c r="A640" s="49">
         <v>637</v>
       </c>
@@ -27919,7 +27927,7 @@
       </c>
       <c r="K640" s="50"/>
     </row>
-    <row r="641" spans="1:11">
+    <row r="641" spans="1:11" hidden="1">
       <c r="A641" s="49">
         <v>638</v>
       </c>
@@ -27953,7 +27961,7 @@
       </c>
       <c r="K641" s="50"/>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" hidden="1">
       <c r="A642" s="49">
         <v>639</v>
       </c>
@@ -27987,7 +27995,7 @@
       </c>
       <c r="K642" s="50"/>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" spans="1:11" hidden="1">
       <c r="A643" s="49">
         <v>640</v>
       </c>
@@ -28021,7 +28029,7 @@
       </c>
       <c r="K643" s="50"/>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" hidden="1">
       <c r="A644" s="49">
         <v>641</v>
       </c>
@@ -28055,7 +28063,7 @@
       </c>
       <c r="K644" s="50"/>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" spans="1:11" hidden="1">
       <c r="A645" s="49">
         <v>642</v>
       </c>
@@ -28089,7 +28097,7 @@
       </c>
       <c r="K645" s="50"/>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" spans="1:11" hidden="1">
       <c r="A646" s="49">
         <v>643</v>
       </c>
@@ -28123,7 +28131,7 @@
       </c>
       <c r="K646" s="50"/>
     </row>
-    <row r="647" spans="1:11">
+    <row r="647" spans="1:11" hidden="1">
       <c r="A647" s="49">
         <v>644</v>
       </c>
@@ -28157,7 +28165,7 @@
       </c>
       <c r="K647" s="50"/>
     </row>
-    <row r="648" spans="1:11">
+    <row r="648" spans="1:11" hidden="1">
       <c r="A648" s="49">
         <v>645</v>
       </c>
@@ -28191,7 +28199,7 @@
       </c>
       <c r="K648" s="50"/>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" spans="1:11" hidden="1">
       <c r="A649" s="49">
         <v>646</v>
       </c>
@@ -28225,7 +28233,7 @@
       </c>
       <c r="K649" s="50"/>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" spans="1:11" hidden="1">
       <c r="A650" s="49">
         <v>647</v>
       </c>
@@ -28259,7 +28267,7 @@
       </c>
       <c r="K650" s="50"/>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" hidden="1">
       <c r="A651" s="49">
         <v>648</v>
       </c>
@@ -28293,7 +28301,7 @@
       </c>
       <c r="K651" s="50"/>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" spans="1:11" hidden="1">
       <c r="A652" s="49">
         <v>649</v>
       </c>
@@ -28327,7 +28335,7 @@
       </c>
       <c r="K652" s="50"/>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" hidden="1">
       <c r="A653" s="49">
         <v>650</v>
       </c>
@@ -28361,7 +28369,7 @@
       </c>
       <c r="K653" s="50"/>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" spans="1:11" hidden="1">
       <c r="A654" s="49">
         <v>651</v>
       </c>
@@ -28395,7 +28403,7 @@
       </c>
       <c r="K654" s="50"/>
     </row>
-    <row r="655" spans="1:11">
+    <row r="655" spans="1:11" hidden="1">
       <c r="A655" s="49">
         <v>652</v>
       </c>
@@ -28429,7 +28437,7 @@
       </c>
       <c r="K655" s="50"/>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" spans="1:11" hidden="1">
       <c r="A656" s="49">
         <v>653</v>
       </c>
@@ -28463,7 +28471,7 @@
       </c>
       <c r="K656" s="50"/>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:11" hidden="1">
       <c r="A657" s="49">
         <v>654</v>
       </c>
@@ -28497,7 +28505,7 @@
       </c>
       <c r="K657" s="50"/>
     </row>
-    <row r="658" spans="1:11">
+    <row r="658" spans="1:11" hidden="1">
       <c r="A658" s="49">
         <v>655</v>
       </c>
@@ -28531,7 +28539,7 @@
       </c>
       <c r="K658" s="50"/>
     </row>
-    <row r="659" spans="1:11">
+    <row r="659" spans="1:11" hidden="1">
       <c r="A659" s="49">
         <v>656</v>
       </c>
@@ -28565,7 +28573,7 @@
       </c>
       <c r="K659" s="50"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" hidden="1">
       <c r="A660" s="49">
         <v>657</v>
       </c>
@@ -28599,7 +28607,7 @@
       </c>
       <c r="K660" s="50"/>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" hidden="1">
       <c r="A661" s="49">
         <v>658</v>
       </c>
@@ -28633,7 +28641,7 @@
       </c>
       <c r="K661" s="50"/>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:11" hidden="1">
       <c r="A662" s="49">
         <v>659</v>
       </c>
@@ -28667,7 +28675,7 @@
       </c>
       <c r="K662" s="50"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" hidden="1">
       <c r="A663" s="49">
         <v>660</v>
       </c>
@@ -28701,7 +28709,7 @@
       </c>
       <c r="K663" s="50"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" hidden="1">
       <c r="A664" s="49">
         <v>661</v>
       </c>
@@ -28735,7 +28743,7 @@
       </c>
       <c r="K664" s="50"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" hidden="1">
       <c r="A665" s="49">
         <v>662</v>
       </c>
@@ -28769,7 +28777,7 @@
       </c>
       <c r="K665" s="50"/>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:11" hidden="1">
       <c r="A666" s="49">
         <v>663</v>
       </c>
@@ -28803,7 +28811,7 @@
       </c>
       <c r="K666" s="50"/>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:11" hidden="1">
       <c r="A667" s="49">
         <v>664</v>
       </c>
@@ -28837,7 +28845,7 @@
       </c>
       <c r="K667" s="50"/>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:11" hidden="1">
       <c r="A668" s="49">
         <v>665</v>
       </c>
@@ -28871,7 +28879,7 @@
       </c>
       <c r="K668" s="50"/>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:11" hidden="1">
       <c r="A669" s="49">
         <v>666</v>
       </c>
@@ -28905,7 +28913,7 @@
       </c>
       <c r="K669" s="50"/>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:11" hidden="1">
       <c r="A670" s="49">
         <v>667</v>
       </c>
@@ -28939,7 +28947,7 @@
       </c>
       <c r="K670" s="50"/>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" spans="1:11" hidden="1">
       <c r="A671" s="49">
         <v>668</v>
       </c>
@@ -28973,7 +28981,7 @@
       </c>
       <c r="K671" s="50"/>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:11" hidden="1">
       <c r="A672" s="49">
         <v>669</v>
       </c>
@@ -29007,7 +29015,7 @@
       </c>
       <c r="K672" s="50"/>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" spans="1:11" hidden="1">
       <c r="A673" s="49">
         <v>670</v>
       </c>
@@ -29041,7 +29049,7 @@
       </c>
       <c r="K673" s="50"/>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" hidden="1">
       <c r="A674" s="49">
         <v>671</v>
       </c>
@@ -29075,7 +29083,7 @@
       </c>
       <c r="K674" s="50"/>
     </row>
-    <row r="675" spans="1:11">
+    <row r="675" spans="1:11" hidden="1">
       <c r="A675" s="49">
         <v>672</v>
       </c>
@@ -29109,7 +29117,7 @@
       </c>
       <c r="K675" s="50"/>
     </row>
-    <row r="676" spans="1:11">
+    <row r="676" spans="1:11" hidden="1">
       <c r="A676" s="49">
         <v>673</v>
       </c>
@@ -29143,7 +29151,7 @@
       </c>
       <c r="K676" s="50"/>
     </row>
-    <row r="677" spans="1:11">
+    <row r="677" spans="1:11" hidden="1">
       <c r="A677" s="49">
         <v>674</v>
       </c>
@@ -29177,7 +29185,7 @@
       </c>
       <c r="K677" s="50"/>
     </row>
-    <row r="678" spans="1:11">
+    <row r="678" spans="1:11" hidden="1">
       <c r="A678" s="49">
         <v>675</v>
       </c>
@@ -29211,7 +29219,7 @@
       </c>
       <c r="K678" s="50"/>
     </row>
-    <row r="679" spans="1:11">
+    <row r="679" spans="1:11" hidden="1">
       <c r="A679" s="49">
         <v>676</v>
       </c>
@@ -29245,7 +29253,7 @@
       </c>
       <c r="K679" s="50"/>
     </row>
-    <row r="680" spans="1:11">
+    <row r="680" spans="1:11" hidden="1">
       <c r="A680" s="49">
         <v>677</v>
       </c>
@@ -29279,7 +29287,7 @@
       </c>
       <c r="K680" s="50"/>
     </row>
-    <row r="681" spans="1:11">
+    <row r="681" spans="1:11" hidden="1">
       <c r="A681" s="49">
         <v>678</v>
       </c>
@@ -29313,7 +29321,7 @@
       </c>
       <c r="K681" s="50"/>
     </row>
-    <row r="682" spans="1:11">
+    <row r="682" spans="1:11" hidden="1">
       <c r="A682" s="49">
         <v>679</v>
       </c>
@@ -29347,7 +29355,7 @@
       </c>
       <c r="K682" s="50"/>
     </row>
-    <row r="683" spans="1:11">
+    <row r="683" spans="1:11" hidden="1">
       <c r="A683" s="49">
         <v>680</v>
       </c>
@@ -29381,7 +29389,7 @@
       </c>
       <c r="K683" s="50"/>
     </row>
-    <row r="684" spans="1:11">
+    <row r="684" spans="1:11" hidden="1">
       <c r="A684" s="49">
         <v>681</v>
       </c>
@@ -29415,7 +29423,7 @@
       </c>
       <c r="K684" s="50"/>
     </row>
-    <row r="685" spans="1:11">
+    <row r="685" spans="1:11" hidden="1">
       <c r="A685" s="49">
         <v>682</v>
       </c>
@@ -29449,7 +29457,7 @@
       </c>
       <c r="K685" s="50"/>
     </row>
-    <row r="686" spans="1:11">
+    <row r="686" spans="1:11" hidden="1">
       <c r="A686" s="49">
         <v>683</v>
       </c>
@@ -29483,7 +29491,7 @@
       </c>
       <c r="K686" s="50"/>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" spans="1:11" hidden="1">
       <c r="A687" s="49">
         <v>684</v>
       </c>
@@ -29517,7 +29525,7 @@
       </c>
       <c r="K687" s="50"/>
     </row>
-    <row r="688" spans="1:11">
+    <row r="688" spans="1:11" hidden="1">
       <c r="A688" s="49">
         <v>685</v>
       </c>
@@ -29551,7 +29559,7 @@
       </c>
       <c r="K688" s="50"/>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" hidden="1">
       <c r="A689" s="49">
         <v>686</v>
       </c>
@@ -29585,7 +29593,7 @@
       </c>
       <c r="K689" s="50"/>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" spans="1:11" hidden="1">
       <c r="A690" s="49">
         <v>687</v>
       </c>
@@ -29619,7 +29627,7 @@
       </c>
       <c r="K690" s="50"/>
     </row>
-    <row r="691" spans="1:11">
+    <row r="691" spans="1:11" hidden="1">
       <c r="A691" s="49">
         <v>688</v>
       </c>
@@ -29653,7 +29661,7 @@
       </c>
       <c r="K691" s="50"/>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" spans="1:11" hidden="1">
       <c r="A692" s="49">
         <v>689</v>
       </c>
@@ -29687,7 +29695,7 @@
       </c>
       <c r="K692" s="50"/>
     </row>
-    <row r="693" spans="1:11">
+    <row r="693" spans="1:11" hidden="1">
       <c r="A693" s="49">
         <v>690</v>
       </c>
@@ -29721,7 +29729,7 @@
       </c>
       <c r="K693" s="50"/>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" spans="1:11" hidden="1">
       <c r="A694" s="49">
         <v>691</v>
       </c>
@@ -29755,7 +29763,7 @@
       </c>
       <c r="K694" s="50"/>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" hidden="1">
       <c r="A695" s="49">
         <v>692</v>
       </c>
@@ -29789,7 +29797,7 @@
       </c>
       <c r="K695" s="50"/>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" hidden="1">
       <c r="A696" s="49">
         <v>693</v>
       </c>
@@ -29823,7 +29831,7 @@
       </c>
       <c r="K696" s="50"/>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" spans="1:11" hidden="1">
       <c r="A697" s="49">
         <v>694</v>
       </c>
@@ -29857,7 +29865,7 @@
       </c>
       <c r="K697" s="50"/>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" hidden="1">
       <c r="A698" s="49">
         <v>695</v>
       </c>
@@ -29891,7 +29899,7 @@
       </c>
       <c r="K698" s="50"/>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" hidden="1">
       <c r="A699" s="49">
         <v>696</v>
       </c>
@@ -29925,7 +29933,7 @@
       </c>
       <c r="K699" s="50"/>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" spans="1:11" hidden="1">
       <c r="A700" s="49">
         <v>697</v>
       </c>
@@ -29959,7 +29967,7 @@
       </c>
       <c r="K700" s="50"/>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" hidden="1">
       <c r="A701" s="49">
         <v>698</v>
       </c>
@@ -29993,7 +30001,7 @@
       </c>
       <c r="K701" s="50"/>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" hidden="1">
       <c r="A702" s="49">
         <v>699</v>
       </c>
@@ -30027,7 +30035,7 @@
       </c>
       <c r="K702" s="50"/>
     </row>
-    <row r="703" spans="1:11">
+    <row r="703" spans="1:11" hidden="1">
       <c r="A703" s="49">
         <v>700</v>
       </c>
@@ -30061,7 +30069,7 @@
       </c>
       <c r="K703" s="50"/>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" hidden="1">
       <c r="A704" s="49">
         <v>701</v>
       </c>
@@ -30095,7 +30103,7 @@
       </c>
       <c r="K704" s="50"/>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" hidden="1">
       <c r="A705" s="49">
         <v>702</v>
       </c>
@@ -30129,7 +30137,7 @@
       </c>
       <c r="K705" s="50"/>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:11" hidden="1">
       <c r="A706" s="49">
         <v>703</v>
       </c>
@@ -30163,7 +30171,7 @@
       </c>
       <c r="K706" s="50"/>
     </row>
-    <row r="707" spans="1:11">
+    <row r="707" spans="1:11" hidden="1">
       <c r="A707" s="49">
         <v>704</v>
       </c>
@@ -30197,7 +30205,7 @@
       </c>
       <c r="K707" s="50"/>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:11" hidden="1">
       <c r="A708" s="49">
         <v>705</v>
       </c>
@@ -30231,7 +30239,7 @@
       </c>
       <c r="K708" s="50"/>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" hidden="1">
       <c r="A709" s="49">
         <v>706</v>
       </c>
@@ -30265,7 +30273,7 @@
       </c>
       <c r="K709" s="50"/>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" hidden="1">
       <c r="A710" s="49">
         <v>707</v>
       </c>
@@ -30299,7 +30307,7 @@
       </c>
       <c r="K710" s="50"/>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" hidden="1">
       <c r="A711" s="49">
         <v>708</v>
       </c>
@@ -30333,7 +30341,7 @@
       </c>
       <c r="K711" s="50"/>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" hidden="1">
       <c r="A712" s="49">
         <v>709</v>
       </c>
@@ -30367,7 +30375,7 @@
       </c>
       <c r="K712" s="50"/>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" hidden="1">
       <c r="A713" s="49">
         <v>710</v>
       </c>
@@ -30401,7 +30409,7 @@
       </c>
       <c r="K713" s="50"/>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" spans="1:11" hidden="1">
       <c r="A714" s="49">
         <v>711</v>
       </c>
@@ -30435,7 +30443,7 @@
       </c>
       <c r="K714" s="50"/>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:11" hidden="1">
       <c r="A715" s="49">
         <v>712</v>
       </c>
@@ -30469,7 +30477,7 @@
       </c>
       <c r="K715" s="50"/>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" spans="1:11" hidden="1">
       <c r="A716" s="49">
         <v>713</v>
       </c>
@@ -30503,7 +30511,7 @@
       </c>
       <c r="K716" s="50"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" hidden="1">
       <c r="A717" s="49">
         <v>714</v>
       </c>
@@ -30537,7 +30545,7 @@
       </c>
       <c r="K717" s="50"/>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:11" hidden="1">
       <c r="A718" s="49">
         <v>715</v>
       </c>
@@ -30571,7 +30579,7 @@
       </c>
       <c r="K718" s="50"/>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" spans="1:11" hidden="1">
       <c r="A719" s="49">
         <v>716</v>
       </c>
@@ -30605,7 +30613,7 @@
       </c>
       <c r="K719" s="50"/>
     </row>
-    <row r="720" spans="1:11">
+    <row r="720" spans="1:11" hidden="1">
       <c r="A720" s="49">
         <v>717</v>
       </c>
@@ -30639,7 +30647,7 @@
       </c>
       <c r="K720" s="50"/>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:11" hidden="1">
       <c r="A721" s="49">
         <v>718</v>
       </c>
@@ -30673,7 +30681,7 @@
       </c>
       <c r="K721" s="50"/>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:11" hidden="1">
       <c r="A722" s="49">
         <v>719</v>
       </c>
@@ -30707,7 +30715,7 @@
       </c>
       <c r="K722" s="50"/>
     </row>
-    <row r="723" spans="1:11">
+    <row r="723" spans="1:11" hidden="1">
       <c r="A723" s="49">
         <v>720</v>
       </c>
@@ -30741,7 +30749,7 @@
       </c>
       <c r="K723" s="50"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" hidden="1">
       <c r="A724" s="49">
         <v>721</v>
       </c>
@@ -30775,7 +30783,7 @@
       </c>
       <c r="K724" s="50"/>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" spans="1:11" hidden="1">
       <c r="A725" s="49">
         <v>722</v>
       </c>
@@ -30809,7 +30817,7 @@
       </c>
       <c r="K725" s="50"/>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" spans="1:11" hidden="1">
       <c r="A726" s="49">
         <v>723</v>
       </c>
@@ -30843,7 +30851,7 @@
       </c>
       <c r="K726" s="50"/>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:11" hidden="1">
       <c r="A727" s="49">
         <v>724</v>
       </c>
@@ -30877,7 +30885,7 @@
       </c>
       <c r="K727" s="50"/>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:11" hidden="1">
       <c r="A728" s="49">
         <v>725</v>
       </c>
@@ -30911,7 +30919,7 @@
       </c>
       <c r="K728" s="50"/>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:11" hidden="1">
       <c r="A729" s="49">
         <v>726</v>
       </c>
@@ -30945,7 +30953,7 @@
       </c>
       <c r="K729" s="50"/>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:11" hidden="1">
       <c r="A730" s="49">
         <v>727</v>
       </c>
@@ -30979,7 +30987,7 @@
       </c>
       <c r="K730" s="50"/>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" spans="1:11" hidden="1">
       <c r="A731" s="49">
         <v>728</v>
       </c>
@@ -51719,7 +51727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9383A25-0F16-46DD-90D6-054193614933}">
   <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Data/Data_detail.xlsx
+++ b/Data/Data_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\ML-AIS\ML-AIS-Sensor-Project-2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5BB2C-32A7-4D29-AC41-64A89F475775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95652B02-823B-4ACE-922A-A7E4DC16143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="3" activeTab="3" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="3" activeTab="7" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10864" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10872" uniqueCount="246">
   <si>
     <t>No.</t>
   </si>
@@ -50891,7 +50891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19791E42-7636-4F38-95C8-773C092ADBC2}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -68373,7 +68373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9383A25-0F16-46DD-90D6-054193614933}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74:H81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -70672,9 +70674,8 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="H74" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>fft_73_.txt</v>
+      <c r="H74" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I74" s="80" t="s">
         <v>18</v>
@@ -70703,9 +70704,8 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="H75" s="90" t="str">
-        <f>_xlfn.CONCAT("fft_",A75,"_",".txt")</f>
-        <v>fft_74_.txt</v>
+      <c r="H75" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I75" s="80" t="s">
         <v>18</v>
@@ -70734,9 +70734,8 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="H76" s="90" t="str">
-        <f t="shared" ref="H76:H105" si="12">_xlfn.CONCAT("fft_",A76,"_",".txt")</f>
-        <v>fft_75_.txt</v>
+      <c r="H76" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I76" s="80" t="s">
         <v>18</v>
@@ -70765,9 +70764,8 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="H77" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>fft_76_.txt</v>
+      <c r="H77" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I77" s="80" t="s">
         <v>18</v>
@@ -70796,9 +70794,8 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="H78" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>fft_77_.txt</v>
+      <c r="H78" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I78" s="80" t="s">
         <v>18</v>
@@ -70827,9 +70824,8 @@
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="H79" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>fft_78_.txt</v>
+      <c r="H79" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I79" s="80" t="s">
         <v>18</v>
@@ -70858,9 +70854,8 @@
         <f>F80*10</f>
         <v>250</v>
       </c>
-      <c r="H80" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>fft_79_.txt</v>
+      <c r="H80" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I80" s="80" t="s">
         <v>18</v>
@@ -70886,12 +70881,11 @@
         <v>25</v>
       </c>
       <c r="G81" s="82">
-        <f t="shared" ref="G81" si="13">F81*10</f>
+        <f t="shared" ref="G81" si="12">F81*10</f>
         <v>250</v>
       </c>
-      <c r="H81" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>fft_80_.txt</v>
+      <c r="H81" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="I81" s="80" t="s">
         <v>18</v>
@@ -70921,7 +70915,7 @@
         <v>400</v>
       </c>
       <c r="H82" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H76:H105" si="13">_xlfn.CONCAT("fft_",A82,"_",".txt")</f>
         <v>fft_81_.txt</v>
       </c>
       <c r="I82" s="80" t="s">
@@ -70952,7 +70946,7 @@
         <v>400</v>
       </c>
       <c r="H83" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_82_.txt</v>
       </c>
       <c r="I83" s="80" t="s">
@@ -70983,7 +70977,7 @@
         <v>400</v>
       </c>
       <c r="H84" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_83_.txt</v>
       </c>
       <c r="I84" s="80" t="s">
@@ -71014,7 +71008,7 @@
         <v>400</v>
       </c>
       <c r="H85" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_84_.txt</v>
       </c>
       <c r="I85" s="80" t="s">
@@ -71045,7 +71039,7 @@
         <v>400</v>
       </c>
       <c r="H86" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_85_.txt</v>
       </c>
       <c r="I86" s="80" t="s">
@@ -71076,7 +71070,7 @@
         <v>400</v>
       </c>
       <c r="H87" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_86_.txt</v>
       </c>
       <c r="I87" s="80" t="s">
@@ -71107,7 +71101,7 @@
         <v>400</v>
       </c>
       <c r="H88" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_87_.txt</v>
       </c>
       <c r="I88" s="80" t="s">
@@ -71138,7 +71132,7 @@
         <v>400</v>
       </c>
       <c r="H89" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_88_.txt</v>
       </c>
       <c r="I89" s="80" t="s">
@@ -71169,7 +71163,7 @@
         <v>400</v>
       </c>
       <c r="H90" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_89_.txt</v>
       </c>
       <c r="I90" s="80" t="s">
@@ -71200,7 +71194,7 @@
         <v>400</v>
       </c>
       <c r="H91" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_90_.txt</v>
       </c>
       <c r="I91" s="80" t="s">
@@ -71231,7 +71225,7 @@
         <v>400</v>
       </c>
       <c r="H92" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_91_.txt</v>
       </c>
       <c r="I92" s="80" t="s">
@@ -71262,7 +71256,7 @@
         <v>400</v>
       </c>
       <c r="H93" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_92_.txt</v>
       </c>
       <c r="I93" s="80" t="s">
@@ -71293,7 +71287,7 @@
         <v>400</v>
       </c>
       <c r="H94" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_93_.txt</v>
       </c>
       <c r="I94" s="80" t="s">
@@ -71324,7 +71318,7 @@
         <v>400</v>
       </c>
       <c r="H95" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_94_.txt</v>
       </c>
       <c r="I95" s="80" t="s">
@@ -71355,7 +71349,7 @@
         <v>400</v>
       </c>
       <c r="H96" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_95_.txt</v>
       </c>
       <c r="I96" s="80" t="s">
@@ -71386,7 +71380,7 @@
         <v>400</v>
       </c>
       <c r="H97" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_96_.txt</v>
       </c>
       <c r="I97" s="80" t="s">
@@ -71417,7 +71411,7 @@
         <v>400</v>
       </c>
       <c r="H98" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_97_.txt</v>
       </c>
       <c r="I98" s="80" t="s">
@@ -71448,7 +71442,7 @@
         <v>400</v>
       </c>
       <c r="H99" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_98_.txt</v>
       </c>
       <c r="I99" s="80" t="s">
@@ -71510,7 +71504,7 @@
         <v>400</v>
       </c>
       <c r="H101" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_100_.txt</v>
       </c>
       <c r="I101" s="80" t="s">
@@ -71541,7 +71535,7 @@
         <v>400</v>
       </c>
       <c r="H102" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_101_.txt</v>
       </c>
       <c r="I102" s="80" t="s">
@@ -71572,7 +71566,7 @@
         <v>400</v>
       </c>
       <c r="H103" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_102_.txt</v>
       </c>
       <c r="I103" s="80" t="s">
@@ -71603,7 +71597,7 @@
         <v>400</v>
       </c>
       <c r="H104" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_103_.txt</v>
       </c>
       <c r="I104" s="80" t="s">
@@ -71634,7 +71628,7 @@
         <v>400</v>
       </c>
       <c r="H105" s="90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>fft_104_.txt</v>
       </c>
       <c r="I105" s="80" t="s">
@@ -72403,7 +72397,7 @@
       </c>
       <c r="H130" s="87">
         <f>COUNTIF($H$2:$H129, "fft*")</f>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I130" s="26" t="s">
         <v>18</v>

--- a/Data/Data_detail.xlsx
+++ b/Data/Data_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\ML-AIS\ML-AIS-Sensor-Project-2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95652B02-823B-4ACE-922A-A7E4DC16143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DC73F-3027-4749-9CAF-E80BA7A6CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="3" activeTab="7" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="6" activeTab="8" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10872" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10560" uniqueCount="246">
   <si>
     <t>No.</t>
   </si>
@@ -12407,7 +12407,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2538E6AB-C645-4E96-A765-27DC877B237F}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -16147,7 +16147,7 @@
         <v>40</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" ref="I101:I115" si="13">H101*10</f>
+        <f t="shared" ref="I101:I109" si="13">H101*10</f>
         <v>400</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -16449,1913 +16449,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1">
-      <c r="A110" s="80">
-        <v>109</v>
-      </c>
-      <c r="B110" s="100">
-        <v>180</v>
-      </c>
-      <c r="C110" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D110" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E110" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="1">
-        <v>40</v>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="99">
+        <f>SUM(H2:H109)</f>
+        <v>4320</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1">
-      <c r="A111" s="80">
-        <v>110</v>
-      </c>
-      <c r="B111" s="100">
-        <v>180</v>
-      </c>
-      <c r="C111" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D111" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E111" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="1">
-        <v>40</v>
-      </c>
-      <c r="I111" s="1">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1">
-      <c r="A112" s="80">
-        <v>111</v>
-      </c>
-      <c r="B112" s="100">
-        <v>180</v>
-      </c>
-      <c r="C112" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D112" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E112" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="1">
-        <v>40</v>
-      </c>
-      <c r="I112" s="1">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1">
-      <c r="A113" s="80">
-        <v>112</v>
-      </c>
-      <c r="B113" s="100">
-        <v>180</v>
-      </c>
-      <c r="C113" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D113" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E113" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="1">
-        <v>40</v>
-      </c>
-      <c r="I113" s="1">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="80">
-        <v>113</v>
-      </c>
-      <c r="B114" s="100">
-        <v>190</v>
-      </c>
-      <c r="C114" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D114" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="1">
-        <v>40</v>
-      </c>
-      <c r="I114" s="1">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="80">
-        <v>114</v>
-      </c>
-      <c r="B115" s="100">
-        <v>190</v>
-      </c>
-      <c r="C115" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D115" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E115" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H115" s="1">
-        <v>40</v>
-      </c>
-      <c r="I115" s="1">
-        <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="80">
-        <v>115</v>
-      </c>
-      <c r="B116" s="100">
-        <v>190</v>
-      </c>
-      <c r="C116" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D116" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E116" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" s="1">
-        <v>40</v>
-      </c>
-      <c r="I116" s="1">
-        <f>H116*10</f>
-        <v>400</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="80">
-        <v>116</v>
-      </c>
-      <c r="B117" s="100">
-        <v>190</v>
-      </c>
-      <c r="C117" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D117" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E117" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" s="1">
-        <v>40</v>
-      </c>
-      <c r="I117" s="1">
-        <f t="shared" ref="I117:I131" si="15">H117*10</f>
-        <v>400</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="80">
-        <v>117</v>
-      </c>
-      <c r="B118" s="100">
-        <v>190</v>
-      </c>
-      <c r="C118" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D118" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E118" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="1">
-        <v>40</v>
-      </c>
-      <c r="I118" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="80">
-        <v>118</v>
-      </c>
-      <c r="B119" s="100">
-        <v>190</v>
-      </c>
-      <c r="C119" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D119" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E119" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" s="1">
-        <v>40</v>
-      </c>
-      <c r="I119" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="80">
-        <v>119</v>
-      </c>
-      <c r="B120" s="100">
-        <v>190</v>
-      </c>
-      <c r="C120" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D120" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E120" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" s="1">
-        <v>40</v>
-      </c>
-      <c r="I120" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="80">
-        <v>120</v>
-      </c>
-      <c r="B121" s="100">
-        <v>190</v>
-      </c>
-      <c r="C121" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D121" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="1">
-        <v>40</v>
-      </c>
-      <c r="I121" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="80">
-        <v>121</v>
-      </c>
-      <c r="B122" s="100">
-        <v>190</v>
-      </c>
-      <c r="C122" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D122" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E122" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="1">
-        <v>40</v>
-      </c>
-      <c r="I122" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="80">
-        <v>122</v>
-      </c>
-      <c r="B123" s="100">
-        <v>190</v>
-      </c>
-      <c r="C123" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D123" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E123" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" s="1">
-        <v>40</v>
-      </c>
-      <c r="I123" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="80">
-        <v>123</v>
-      </c>
-      <c r="B124" s="100">
-        <v>190</v>
-      </c>
-      <c r="C124" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D124" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E124" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" s="1">
-        <v>40</v>
-      </c>
-      <c r="I124" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="80">
-        <v>124</v>
-      </c>
-      <c r="B125" s="100">
-        <v>190</v>
-      </c>
-      <c r="C125" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D125" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E125" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="1">
-        <v>40</v>
-      </c>
-      <c r="I125" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="80">
-        <v>125</v>
-      </c>
-      <c r="B126" s="100">
-        <v>190</v>
-      </c>
-      <c r="C126" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D126" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E126" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="1">
-        <v>40</v>
-      </c>
-      <c r="I126" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="80">
-        <v>126</v>
-      </c>
-      <c r="B127" s="100">
-        <v>190</v>
-      </c>
-      <c r="C127" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D127" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E127" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="1">
-        <v>40</v>
-      </c>
-      <c r="I127" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="80">
-        <v>127</v>
-      </c>
-      <c r="B128" s="100">
-        <v>190</v>
-      </c>
-      <c r="C128" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D128" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E128" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" s="1">
-        <v>40</v>
-      </c>
-      <c r="I128" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="80">
-        <v>128</v>
-      </c>
-      <c r="B129" s="100">
-        <v>190</v>
-      </c>
-      <c r="C129" s="100">
-        <v>11000</v>
-      </c>
-      <c r="D129" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E129" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="1">
-        <v>40</v>
-      </c>
-      <c r="I129" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1">
-      <c r="A130" s="80">
-        <v>129</v>
-      </c>
-      <c r="B130" s="100">
-        <v>190</v>
-      </c>
-      <c r="C130" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D130" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E130" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="1">
-        <v>40</v>
-      </c>
-      <c r="I130" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1">
-      <c r="A131" s="80">
-        <v>130</v>
-      </c>
-      <c r="B131" s="100">
-        <v>190</v>
-      </c>
-      <c r="C131" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D131" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E131" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="1">
-        <v>40</v>
-      </c>
-      <c r="I131" s="1">
-        <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1">
-      <c r="A132" s="80">
-        <v>131</v>
-      </c>
-      <c r="B132" s="100">
-        <v>190</v>
-      </c>
-      <c r="C132" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D132" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E132" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="1">
-        <v>40</v>
-      </c>
-      <c r="I132" s="1">
-        <f>H132*10</f>
-        <v>400</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1">
-      <c r="A133" s="80">
-        <v>132</v>
-      </c>
-      <c r="B133" s="100">
-        <v>190</v>
-      </c>
-      <c r="C133" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D133" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E133" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="1">
-        <v>40</v>
-      </c>
-      <c r="I133" s="1">
-        <f t="shared" ref="I133:I147" si="16">H133*10</f>
-        <v>400</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1">
-      <c r="A134" s="80">
-        <v>133</v>
-      </c>
-      <c r="B134" s="100">
-        <v>190</v>
-      </c>
-      <c r="C134" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D134" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E134" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="1">
-        <v>40</v>
-      </c>
-      <c r="I134" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="15" customHeight="1">
-      <c r="A135" s="80">
-        <v>134</v>
-      </c>
-      <c r="B135" s="100">
-        <v>190</v>
-      </c>
-      <c r="C135" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D135" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E135" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="1">
-        <v>40</v>
-      </c>
-      <c r="I135" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="15" customHeight="1">
-      <c r="A136" s="80">
-        <v>135</v>
-      </c>
-      <c r="B136" s="100">
-        <v>190</v>
-      </c>
-      <c r="C136" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D136" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E136" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="1">
-        <v>40</v>
-      </c>
-      <c r="I136" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1">
-      <c r="A137" s="80">
-        <v>136</v>
-      </c>
-      <c r="B137" s="100">
-        <v>190</v>
-      </c>
-      <c r="C137" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D137" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E137" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" s="1">
-        <v>40</v>
-      </c>
-      <c r="I137" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="15" customHeight="1">
-      <c r="A138" s="80">
-        <v>137</v>
-      </c>
-      <c r="B138" s="100">
-        <v>190</v>
-      </c>
-      <c r="C138" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D138" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E138" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H138" s="1">
-        <v>40</v>
-      </c>
-      <c r="I138" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1">
-      <c r="A139" s="80">
-        <v>138</v>
-      </c>
-      <c r="B139" s="100">
-        <v>190</v>
-      </c>
-      <c r="C139" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D139" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E139" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H139" s="1">
-        <v>40</v>
-      </c>
-      <c r="I139" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="15" customHeight="1">
-      <c r="A140" s="80">
-        <v>139</v>
-      </c>
-      <c r="B140" s="100">
-        <v>190</v>
-      </c>
-      <c r="C140" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D140" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E140" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" s="1">
-        <v>40</v>
-      </c>
-      <c r="I140" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="15" customHeight="1">
-      <c r="A141" s="80">
-        <v>140</v>
-      </c>
-      <c r="B141" s="100">
-        <v>190</v>
-      </c>
-      <c r="C141" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D141" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E141" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141" s="1">
-        <v>40</v>
-      </c>
-      <c r="I141" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1">
-      <c r="A142" s="80">
-        <v>141</v>
-      </c>
-      <c r="B142" s="100">
-        <v>190</v>
-      </c>
-      <c r="C142" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D142" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E142" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" s="1">
-        <v>40</v>
-      </c>
-      <c r="I142" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1">
-      <c r="A143" s="80">
-        <v>142</v>
-      </c>
-      <c r="B143" s="100">
-        <v>190</v>
-      </c>
-      <c r="C143" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D143" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E143" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" s="1">
-        <v>40</v>
-      </c>
-      <c r="I143" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1">
-      <c r="A144" s="80">
-        <v>143</v>
-      </c>
-      <c r="B144" s="100">
-        <v>190</v>
-      </c>
-      <c r="C144" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D144" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E144" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" s="1">
-        <v>40</v>
-      </c>
-      <c r="I144" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1">
-      <c r="A145" s="80">
-        <v>144</v>
-      </c>
-      <c r="B145" s="100">
-        <v>190</v>
-      </c>
-      <c r="C145" s="100">
-        <v>12000</v>
-      </c>
-      <c r="D145" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E145" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" s="1">
-        <v>40</v>
-      </c>
-      <c r="I145" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1">
-      <c r="A146" s="80">
-        <v>145</v>
-      </c>
-      <c r="B146" s="100">
-        <v>190</v>
-      </c>
-      <c r="C146" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D146" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E146" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" s="1">
-        <v>40</v>
-      </c>
-      <c r="I146" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1">
-      <c r="A147" s="80">
-        <v>146</v>
-      </c>
-      <c r="B147" s="100">
-        <v>190</v>
-      </c>
-      <c r="C147" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D147" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E147" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="1">
-        <v>40</v>
-      </c>
-      <c r="I147" s="1">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1">
-      <c r="A148" s="80">
-        <v>147</v>
-      </c>
-      <c r="B148" s="100">
-        <v>190</v>
-      </c>
-      <c r="C148" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D148" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E148" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" s="1">
-        <v>40</v>
-      </c>
-      <c r="I148" s="1">
-        <f>H148*10</f>
-        <v>400</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1">
-      <c r="A149" s="80">
-        <v>148</v>
-      </c>
-      <c r="B149" s="100">
-        <v>190</v>
-      </c>
-      <c r="C149" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D149" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="E149" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H149" s="1">
-        <v>40</v>
-      </c>
-      <c r="I149" s="1">
-        <f t="shared" ref="I149:I161" si="17">H149*10</f>
-        <v>400</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1">
-      <c r="A150" s="80">
-        <v>149</v>
-      </c>
-      <c r="B150" s="100">
-        <v>190</v>
-      </c>
-      <c r="C150" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D150" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E150" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150" s="1">
-        <v>40</v>
-      </c>
-      <c r="I150" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1">
-      <c r="A151" s="80">
-        <v>150</v>
-      </c>
-      <c r="B151" s="100">
-        <v>190</v>
-      </c>
-      <c r="C151" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D151" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E151" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" s="1">
-        <v>40</v>
-      </c>
-      <c r="I151" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1">
-      <c r="A152" s="80">
-        <v>151</v>
-      </c>
-      <c r="B152" s="100">
-        <v>190</v>
-      </c>
-      <c r="C152" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D152" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E152" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" s="1">
-        <v>40</v>
-      </c>
-      <c r="I152" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1">
-      <c r="A153" s="80">
-        <v>152</v>
-      </c>
-      <c r="B153" s="100">
-        <v>190</v>
-      </c>
-      <c r="C153" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D153" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E153" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" s="1">
-        <v>40</v>
-      </c>
-      <c r="I153" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1">
-      <c r="A154" s="80">
-        <v>153</v>
-      </c>
-      <c r="B154" s="100">
-        <v>190</v>
-      </c>
-      <c r="C154" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D154" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E154" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H154" s="1">
-        <v>40</v>
-      </c>
-      <c r="I154" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1">
-      <c r="A155" s="80">
-        <v>154</v>
-      </c>
-      <c r="B155" s="100">
-        <v>190</v>
-      </c>
-      <c r="C155" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D155" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E155" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H155" s="1">
-        <v>40</v>
-      </c>
-      <c r="I155" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1">
-      <c r="A156" s="80">
-        <v>155</v>
-      </c>
-      <c r="B156" s="100">
-        <v>190</v>
-      </c>
-      <c r="C156" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D156" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E156" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" s="1">
-        <v>40</v>
-      </c>
-      <c r="I156" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1">
-      <c r="A157" s="80">
-        <v>156</v>
-      </c>
-      <c r="B157" s="100">
-        <v>190</v>
-      </c>
-      <c r="C157" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D157" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E157" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H157" s="1">
-        <v>40</v>
-      </c>
-      <c r="I157" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1">
-      <c r="A158" s="80">
-        <v>157</v>
-      </c>
-      <c r="B158" s="100">
-        <v>190</v>
-      </c>
-      <c r="C158" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D158" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E158" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" s="1">
-        <v>40</v>
-      </c>
-      <c r="I158" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1">
-      <c r="A159" s="80">
-        <v>158</v>
-      </c>
-      <c r="B159" s="100">
-        <v>190</v>
-      </c>
-      <c r="C159" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D159" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E159" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H159" s="1">
-        <v>40</v>
-      </c>
-      <c r="I159" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1">
-      <c r="A160" s="80">
-        <v>159</v>
-      </c>
-      <c r="B160" s="100">
-        <v>190</v>
-      </c>
-      <c r="C160" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D160" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E160" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H160" s="1">
-        <v>40</v>
-      </c>
-      <c r="I160" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1">
-      <c r="A161" s="80">
-        <v>160</v>
-      </c>
-      <c r="B161" s="100">
-        <v>190</v>
-      </c>
-      <c r="C161" s="100">
-        <v>13000</v>
-      </c>
-      <c r="D161" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E161" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H161" s="1">
-        <v>40</v>
-      </c>
-      <c r="I161" s="1">
-        <f t="shared" si="17"/>
-        <v>400</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C162" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" s="99">
-        <f>SUM(H2:H161)</f>
-        <v>6400</v>
-      </c>
-      <c r="I162" s="1">
-        <f>SUM(I2:I161)</f>
-        <v>64000</v>
-      </c>
-      <c r="J162" s="1">
-        <f>COUNTIF(J2:J161,"fft*")</f>
+        <f>SUM(I2:I109)</f>
+        <v>43200</v>
+      </c>
+      <c r="J110" s="1">
+        <f>COUNTIF(J2:J109,"fft*")</f>
         <v>100</v>
       </c>
-      <c r="K162" s="1"/>
+      <c r="K110" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68373,8 +66501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9383A25-0F16-46DD-90D6-054193614933}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74:H81"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -70458,7 +68586,7 @@
         <v>250</v>
       </c>
       <c r="H67" s="90" t="str">
-        <f t="shared" ref="H67:H74" si="10">_xlfn.CONCAT("fft_",A67,"_",".txt")</f>
+        <f t="shared" ref="H67:H73" si="10">_xlfn.CONCAT("fft_",A67,"_",".txt")</f>
         <v>fft_66_.txt</v>
       </c>
       <c r="I67" s="80" t="s">
@@ -70915,7 +69043,7 @@
         <v>400</v>
       </c>
       <c r="H82" s="90" t="str">
-        <f t="shared" ref="H76:H105" si="13">_xlfn.CONCAT("fft_",A82,"_",".txt")</f>
+        <f t="shared" ref="H82:H105" si="13">_xlfn.CONCAT("fft_",A82,"_",".txt")</f>
         <v>fft_81_.txt</v>
       </c>
       <c r="I82" s="80" t="s">
@@ -72413,7 +70541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2459949-47C2-499E-B299-8B154CE53211}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -72479,7 +70607,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="93" t="s">
         <v>18</v>
@@ -72516,7 +70644,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="93" t="s">
         <v>18</v>
@@ -72553,7 +70681,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="93" t="s">
         <v>18</v>
@@ -72590,7 +70718,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="93" t="s">
         <v>18</v>
@@ -72627,7 +70755,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="93" t="s">
         <v>18</v>
@@ -72664,7 +70792,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="93" t="s">
         <v>18</v>
@@ -72701,7 +70829,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="93" t="s">
         <v>18</v>
@@ -72738,7 +70866,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" s="93" t="s">
         <v>18</v>
@@ -72775,7 +70903,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="93" t="s">
         <v>18</v>
@@ -72812,7 +70940,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="93" t="s">
         <v>18</v>
@@ -72849,7 +70977,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" s="93" t="s">
         <v>18</v>
@@ -72886,7 +71014,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" s="93" t="s">
         <v>18</v>
@@ -72923,7 +71051,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>18</v>
@@ -72960,7 +71088,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>18</v>
@@ -72997,7 +71125,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" s="93" t="s">
         <v>18</v>
@@ -73034,7 +71162,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17" s="93" t="s">
         <v>18</v>
@@ -73071,7 +71199,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="93" t="s">
         <v>18</v>
@@ -73108,7 +71236,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19" s="93" t="s">
         <v>18</v>
@@ -73145,7 +71273,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" s="93" t="s">
         <v>18</v>
@@ -73182,7 +71310,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>18</v>
@@ -73219,7 +71347,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22" s="93" t="s">
         <v>18</v>
@@ -73256,7 +71384,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E23" s="93" t="s">
         <v>18</v>
@@ -73293,7 +71421,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24" s="93" t="s">
         <v>20</v>
@@ -73330,7 +71458,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E25" s="93" t="s">
         <v>20</v>
@@ -73367,7 +71495,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26" s="93" t="s">
         <v>20</v>
@@ -73404,7 +71532,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E27" s="93" t="s">
         <v>20</v>
@@ -73441,7 +71569,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E28" s="93" t="s">
         <v>20</v>
@@ -73478,7 +71606,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E29" s="93" t="s">
         <v>20</v>
@@ -73515,7 +71643,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E30" s="93" t="s">
         <v>20</v>
@@ -73552,7 +71680,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E31" s="93" t="s">
         <v>20</v>
@@ -73589,7 +71717,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E32" s="93" t="s">
         <v>20</v>
@@ -73626,7 +71754,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33" s="93" t="s">
         <v>20</v>
@@ -73663,7 +71791,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E34" s="93" t="s">
         <v>20</v>
@@ -73700,7 +71828,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E35" s="93" t="s">
         <v>20</v>
@@ -73737,7 +71865,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E36" s="93" t="s">
         <v>20</v>
@@ -73774,7 +71902,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E37" s="93" t="s">
         <v>20</v>
@@ -73811,7 +71939,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" s="93" t="s">
         <v>20</v>
@@ -73848,7 +71976,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E39" s="93" t="s">
         <v>20</v>
@@ -73885,7 +72013,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E40" s="93" t="s">
         <v>20</v>
@@ -73922,7 +72050,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E41" s="93" t="s">
         <v>20</v>
@@ -73959,7 +72087,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42" s="93" t="s">
         <v>20</v>
@@ -73996,7 +72124,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E43" s="93" t="s">
         <v>20</v>
@@ -74033,7 +72161,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44" s="93" t="s">
         <v>20</v>
@@ -74070,7 +72198,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E45" s="93" t="s">
         <v>20</v>
@@ -74107,7 +72235,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E46" s="93" t="s">
         <v>20</v>
@@ -74144,7 +72272,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E47" s="93" t="s">
         <v>20</v>
@@ -74181,7 +72309,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E48" s="93" t="s">
         <v>20</v>
@@ -74218,7 +72346,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E49" s="93" t="s">
         <v>20</v>
@@ -74255,7 +72383,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E50" s="93" t="s">
         <v>20</v>
@@ -74292,7 +72420,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E51" s="93" t="s">
         <v>20</v>
@@ -74329,7 +72457,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E52" s="93" t="s">
         <v>20</v>
@@ -74366,7 +72494,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E53" s="93" t="s">
         <v>20</v>
@@ -74403,7 +72531,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E54" s="93" t="s">
         <v>20</v>
@@ -74440,7 +72568,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E55" s="93" t="s">
         <v>20</v>
@@ -74477,7 +72605,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E56" s="93" t="s">
         <v>20</v>
@@ -74514,7 +72642,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E57" s="93" t="s">
         <v>20</v>
@@ -74551,7 +72679,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E58" s="93" t="s">
         <v>20</v>
@@ -74588,7 +72716,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E59" s="93" t="s">
         <v>20</v>
@@ -74625,7 +72753,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E60" s="93" t="s">
         <v>20</v>
@@ -74662,7 +72790,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E61" s="93" t="s">
         <v>20</v>
@@ -74699,7 +72827,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E62" s="93" t="s">
         <v>20</v>
@@ -74736,7 +72864,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E63" s="93" t="s">
         <v>20</v>
@@ -74773,7 +72901,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E64" s="93" t="s">
         <v>20</v>
@@ -74810,7 +72938,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E65" s="93" t="s">
         <v>20</v>
@@ -74847,7 +72975,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E66" s="93" t="s">
         <v>19</v>
@@ -74884,7 +73012,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E67" s="93" t="s">
         <v>19</v>
@@ -74921,7 +73049,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E68" s="93" t="s">
         <v>19</v>
@@ -74958,7 +73086,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E69" s="93" t="s">
         <v>19</v>
@@ -74995,7 +73123,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E70" s="93" t="s">
         <v>19</v>
@@ -75032,7 +73160,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E71" s="93" t="s">
         <v>19</v>
@@ -75069,7 +73197,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E72" s="93" t="s">
         <v>19</v>
@@ -75106,7 +73234,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E73" s="93" t="s">
         <v>19</v>
@@ -75143,7 +73271,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E74" s="93" t="s">
         <v>19</v>
@@ -75180,7 +73308,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E75" s="93" t="s">
         <v>19</v>
@@ -75217,7 +73345,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E76" s="93" t="s">
         <v>19</v>
@@ -75254,7 +73382,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E77" s="93" t="s">
         <v>19</v>
@@ -75291,7 +73419,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E78" s="93" t="s">
         <v>19</v>
@@ -75328,7 +73456,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E79" s="93" t="s">
         <v>19</v>
@@ -75365,7 +73493,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E80" s="93" t="s">
         <v>19</v>
@@ -75402,7 +73530,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E81" s="93" t="s">
         <v>19</v>
@@ -75439,7 +73567,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E82" s="93" t="s">
         <v>19</v>
@@ -75476,7 +73604,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E83" s="93" t="s">
         <v>19</v>
@@ -75513,7 +73641,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E84" s="93" t="s">
         <v>19</v>
@@ -75550,7 +73678,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E85" s="93" t="s">
         <v>19</v>

--- a/Data/Data_detail.xlsx
+++ b/Data/Data_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FRA-UAS\semester3\ML-AIS\ML-AIS-Sensor-Project-2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DC73F-3027-4749-9CAF-E80BA7A6CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F33B1D-B63A-4EB9-BB99-0D55D2F6EC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="6" activeTab="8" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="3" activeTab="10" xr2:uid="{3488F8F7-C072-46D5-A2BC-EFBC329B43B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" state="hidden" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="2022.02.04" sheetId="13" r:id="rId10"/>
     <sheet name="2022.02.11" sheetId="15" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="14" state="hidden" r:id="rId12"/>
-    <sheet name="CM" sheetId="11" r:id="rId13"/>
-    <sheet name="Kontakt" sheetId="1" state="hidden" r:id="rId14"/>
+    <sheet name="2022.02.18" sheetId="17" r:id="rId13"/>
+    <sheet name="CM" sheetId="11" r:id="rId14"/>
+    <sheet name="Kontakt" sheetId="1" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'sensor1-human'!$A$3:$K$731</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10560" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10834" uniqueCount="248">
   <si>
     <t>No.</t>
   </si>
@@ -797,6 +798,12 @@
   <si>
     <t>Headers</t>
   </si>
+  <si>
+    <t>withbelt</t>
+  </si>
+  <si>
+    <t>withmovement</t>
+  </si>
 </sst>
 </file>
 
@@ -1104,7 +1111,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,6 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -4219,9 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76012C5-D65D-4AB2-8B49-D32B704C9093}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7178,10 +7184,10 @@
         <v>6</v>
       </c>
       <c r="F82" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G82" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H82" s="82">
         <v>40</v>
@@ -7214,7 +7220,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G83" s="84" t="s">
         <v>20</v>
@@ -7253,7 +7259,7 @@
         <v>22</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H84" s="82">
         <v>40</v>
@@ -7322,10 +7328,10 @@
         <v>5</v>
       </c>
       <c r="F86" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G86" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H86" s="82">
         <v>40</v>
@@ -7358,7 +7364,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G87" s="84" t="s">
         <v>20</v>
@@ -7397,7 +7403,7 @@
         <v>22</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H88" s="82">
         <v>40</v>
@@ -7466,10 +7472,10 @@
         <v>6</v>
       </c>
       <c r="F90" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G90" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H90" s="82">
         <v>40</v>
@@ -7503,7 +7509,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G91" s="84" t="s">
         <v>20</v>
@@ -7543,7 +7549,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H92" s="82">
         <v>40</v>
@@ -7614,10 +7620,10 @@
         <v>5</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G94" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H94" s="82">
         <v>40</v>
@@ -7651,7 +7657,7 @@
         <v>6</v>
       </c>
       <c r="F95" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G95" s="84" t="s">
         <v>20</v>
@@ -7691,7 +7697,7 @@
         <v>22</v>
       </c>
       <c r="G96" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H96" s="82">
         <v>40</v>
@@ -7762,10 +7768,10 @@
         <v>6</v>
       </c>
       <c r="F98" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G98" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H98" s="82">
         <v>40</v>
@@ -7798,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="F99" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G99" s="84" t="s">
         <v>20</v>
@@ -7837,7 +7843,7 @@
         <v>22</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H100" s="82">
         <v>40</v>
@@ -7906,10 +7912,10 @@
         <v>5</v>
       </c>
       <c r="F102" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G102" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H102" s="82">
         <v>40</v>
@@ -7942,7 +7948,7 @@
         <v>5</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G103" s="84" t="s">
         <v>20</v>
@@ -7981,7 +7987,7 @@
         <v>22</v>
       </c>
       <c r="G104" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H104" s="82">
         <v>40</v>
@@ -8050,10 +8056,10 @@
         <v>6</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G106" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H106" s="82">
         <v>40</v>
@@ -8086,7 +8092,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G107" s="84" t="s">
         <v>20</v>
@@ -8125,7 +8131,7 @@
         <v>22</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H108" s="82">
         <v>40</v>
@@ -8194,10 +8200,10 @@
         <v>5</v>
       </c>
       <c r="F110" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G110" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H110" s="82">
         <v>40</v>
@@ -8230,7 +8236,7 @@
         <v>6</v>
       </c>
       <c r="F111" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G111" s="84" t="s">
         <v>20</v>
@@ -8269,7 +8275,7 @@
         <v>22</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H112" s="82">
         <v>40</v>
@@ -8338,10 +8344,10 @@
         <v>6</v>
       </c>
       <c r="F114" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G114" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H114" s="82">
         <v>40</v>
@@ -8374,7 +8380,7 @@
         <v>6</v>
       </c>
       <c r="F115" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G115" s="84" t="s">
         <v>20</v>
@@ -8413,7 +8419,7 @@
         <v>22</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H116" s="82">
         <v>40</v>
@@ -8482,10 +8488,10 @@
         <v>5</v>
       </c>
       <c r="F118" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G118" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H118" s="82">
         <v>40</v>
@@ -8518,7 +8524,7 @@
         <v>5</v>
       </c>
       <c r="F119" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G119" s="84" t="s">
         <v>20</v>
@@ -8557,7 +8563,7 @@
         <v>22</v>
       </c>
       <c r="G120" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H120" s="82">
         <v>40</v>
@@ -8626,10 +8632,10 @@
         <v>6</v>
       </c>
       <c r="F122" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G122" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H122" s="82">
         <v>40</v>
@@ -8662,7 +8668,7 @@
         <v>5</v>
       </c>
       <c r="F123" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G123" s="84" t="s">
         <v>20</v>
@@ -8701,7 +8707,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H124" s="82">
         <v>40</v>
@@ -8770,10 +8776,10 @@
         <v>5</v>
       </c>
       <c r="F126" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G126" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H126" s="82">
         <v>40</v>
@@ -8806,7 +8812,7 @@
         <v>6</v>
       </c>
       <c r="F127" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G127" s="84" t="s">
         <v>20</v>
@@ -8845,7 +8851,7 @@
         <v>22</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H128" s="82">
         <v>40</v>
@@ -11794,10 +11800,10 @@
         <v>6</v>
       </c>
       <c r="F210" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G210" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H210" s="82">
         <v>40</v>
@@ -11830,7 +11836,7 @@
         <v>6</v>
       </c>
       <c r="F211" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G211" s="84" t="s">
         <v>20</v>
@@ -11869,7 +11875,7 @@
         <v>22</v>
       </c>
       <c r="G212" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H212" s="82">
         <v>40</v>
@@ -11938,10 +11944,10 @@
         <v>5</v>
       </c>
       <c r="F214" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G214" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H214" s="82">
         <v>40</v>
@@ -11974,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="F215" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G215" s="84" t="s">
         <v>20</v>
@@ -12013,7 +12019,7 @@
         <v>22</v>
       </c>
       <c r="G216" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H216" s="82">
         <v>40</v>
@@ -12082,10 +12088,10 @@
         <v>6</v>
       </c>
       <c r="F218" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G218" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H218" s="82">
         <v>40</v>
@@ -12119,7 +12125,7 @@
         <v>5</v>
       </c>
       <c r="F219" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G219" s="84" t="s">
         <v>20</v>
@@ -12159,7 +12165,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H220" s="82">
         <v>40</v>
@@ -12230,10 +12236,10 @@
         <v>5</v>
       </c>
       <c r="F222" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G222" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H222" s="82">
         <v>40</v>
@@ -12267,7 +12273,7 @@
         <v>6</v>
       </c>
       <c r="F223" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G223" s="84" t="s">
         <v>20</v>
@@ -12307,7 +12313,7 @@
         <v>22</v>
       </c>
       <c r="G224" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H224" s="82">
         <v>40</v>
@@ -12409,7 +12415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2538E6AB-C645-4E96-A765-27DC877B237F}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89.85546875" defaultRowHeight="15"/>
   <cols>
@@ -12774,10 +12782,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H10" s="1">
         <v>40</v>
@@ -12811,7 +12819,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -12851,7 +12859,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H12" s="1">
         <v>40</v>
@@ -12922,10 +12930,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H14" s="1">
         <v>40</v>
@@ -12959,7 +12967,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
@@ -12999,7 +13007,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H16" s="1">
         <v>40</v>
@@ -13366,10 +13374,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
@@ -13403,7 +13411,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>20</v>
@@ -13443,7 +13451,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
@@ -13514,10 +13522,10 @@
         <v>5</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
@@ -13551,7 +13559,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
@@ -13591,7 +13599,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
@@ -13958,10 +13966,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H42" s="1">
         <v>40</v>
@@ -13995,7 +14003,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
@@ -14035,7 +14043,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H44" s="1">
         <v>40</v>
@@ -14106,10 +14114,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H46" s="1">
         <v>40</v>
@@ -14143,7 +14151,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>20</v>
@@ -14183,7 +14191,7 @@
         <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H48" s="1">
         <v>40</v>
@@ -14550,10 +14558,10 @@
         <v>5</v>
       </c>
       <c r="F58" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H58" s="1">
         <v>40</v>
@@ -14587,7 +14595,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>20</v>
@@ -14627,7 +14635,7 @@
         <v>22</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H60" s="1">
         <v>40</v>
@@ -14698,10 +14706,10 @@
         <v>5</v>
       </c>
       <c r="F62" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H62" s="1">
         <v>40</v>
@@ -14735,7 +14743,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>20</v>
@@ -14775,7 +14783,7 @@
         <v>22</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H64" s="1">
         <v>40</v>
@@ -15142,10 +15150,10 @@
         <v>5</v>
       </c>
       <c r="F74" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H74" s="1">
         <v>40</v>
@@ -15179,7 +15187,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>20</v>
@@ -15219,7 +15227,7 @@
         <v>22</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H76" s="1">
         <v>40</v>
@@ -15290,10 +15298,10 @@
         <v>5</v>
       </c>
       <c r="F78" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H78" s="1">
         <v>40</v>
@@ -15327,7 +15335,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>20</v>
@@ -15367,7 +15375,7 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H80" s="1">
         <v>40</v>
@@ -15734,10 +15742,10 @@
         <v>5</v>
       </c>
       <c r="F90" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H90" s="1">
         <v>40</v>
@@ -15771,7 +15779,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>20</v>
@@ -15811,7 +15819,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H92" s="1">
         <v>40</v>
@@ -15882,10 +15890,10 @@
         <v>5</v>
       </c>
       <c r="F94" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H94" s="1">
         <v>40</v>
@@ -15919,7 +15927,7 @@
         <v>5</v>
       </c>
       <c r="F95" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>20</v>
@@ -15959,7 +15967,7 @@
         <v>22</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H96" s="1">
         <v>40</v>
@@ -16318,10 +16326,10 @@
         <v>5</v>
       </c>
       <c r="F106" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H106" s="1">
         <v>40</v>
@@ -16355,7 +16363,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>20</v>
@@ -16395,7 +16403,7 @@
         <v>22</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="H108" s="1">
         <v>40</v>
@@ -16671,6 +16679,2155 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9299F6DD-563C-43D3-9260-5917705670EB}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="71.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100">
+        <v>160</v>
+      </c>
+      <c r="C2" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I33" si="0">H2*10</f>
+        <v>400</v>
+      </c>
+      <c r="J2" s="90" t="str">
+        <f>_xlfn.CONCAT("fft_",A2,"_",".txt")</f>
+        <v>fft_1_.txt</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="100">
+        <v>160</v>
+      </c>
+      <c r="C3" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="100">
+        <v>160</v>
+      </c>
+      <c r="C4" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="100">
+        <v>160</v>
+      </c>
+      <c r="C5" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="100">
+        <v>160</v>
+      </c>
+      <c r="C6" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="100">
+        <v>160</v>
+      </c>
+      <c r="C7" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="100">
+        <v>160</v>
+      </c>
+      <c r="C8" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="100">
+        <v>160</v>
+      </c>
+      <c r="C9" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="100">
+        <v>170</v>
+      </c>
+      <c r="C10" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="100">
+        <v>170</v>
+      </c>
+      <c r="C11" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="100">
+        <v>170</v>
+      </c>
+      <c r="C12" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="100">
+        <v>170</v>
+      </c>
+      <c r="C13" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="100">
+        <v>170</v>
+      </c>
+      <c r="C14" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="100">
+        <v>170</v>
+      </c>
+      <c r="C15" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="100">
+        <v>170</v>
+      </c>
+      <c r="C16" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="100">
+        <v>170</v>
+      </c>
+      <c r="C17" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="100">
+        <v>180</v>
+      </c>
+      <c r="C18" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="100">
+        <v>180</v>
+      </c>
+      <c r="C19" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="100">
+        <v>180</v>
+      </c>
+      <c r="C20" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="100">
+        <v>180</v>
+      </c>
+      <c r="C21" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="100">
+        <v>180</v>
+      </c>
+      <c r="C22" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="100">
+        <v>180</v>
+      </c>
+      <c r="C23" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="100">
+        <v>180</v>
+      </c>
+      <c r="C24" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="100">
+        <v>180</v>
+      </c>
+      <c r="C25" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="100">
+        <v>190</v>
+      </c>
+      <c r="C26" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="100">
+        <v>190</v>
+      </c>
+      <c r="C27" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="100">
+        <v>190</v>
+      </c>
+      <c r="C28" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="100">
+        <v>190</v>
+      </c>
+      <c r="C29" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1">
+        <v>40</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="100">
+        <v>190</v>
+      </c>
+      <c r="C30" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1">
+        <v>40</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="100">
+        <v>190</v>
+      </c>
+      <c r="C31" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <v>40</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="100">
+        <v>190</v>
+      </c>
+      <c r="C32" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>40</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="87">
+        <v>32</v>
+      </c>
+      <c r="B33" s="100">
+        <v>190</v>
+      </c>
+      <c r="C33" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <v>40</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="100">
+        <v>160</v>
+      </c>
+      <c r="C34" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1">
+        <v>40</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I66" si="1">H34*10</f>
+        <v>400</v>
+      </c>
+      <c r="J34" s="90"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="87">
+        <v>34</v>
+      </c>
+      <c r="B35" s="100">
+        <v>160</v>
+      </c>
+      <c r="C35" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1">
+        <v>40</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="100">
+        <v>160</v>
+      </c>
+      <c r="C36" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="87">
+        <v>36</v>
+      </c>
+      <c r="B37" s="100">
+        <v>160</v>
+      </c>
+      <c r="C37" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1">
+        <v>40</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="100">
+        <v>160</v>
+      </c>
+      <c r="C38" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1">
+        <v>40</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="87">
+        <v>38</v>
+      </c>
+      <c r="B39" s="100">
+        <v>160</v>
+      </c>
+      <c r="C39" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="100">
+        <v>160</v>
+      </c>
+      <c r="C40" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>40</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="87">
+        <v>40</v>
+      </c>
+      <c r="B41" s="100">
+        <v>160</v>
+      </c>
+      <c r="C41" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="100">
+        <v>170</v>
+      </c>
+      <c r="C42" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="87">
+        <v>42</v>
+      </c>
+      <c r="B43" s="100">
+        <v>170</v>
+      </c>
+      <c r="C43" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="1">
+        <v>40</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="17">
+        <v>43</v>
+      </c>
+      <c r="B44" s="100">
+        <v>170</v>
+      </c>
+      <c r="C44" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1">
+        <v>40</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="87">
+        <v>44</v>
+      </c>
+      <c r="B45" s="100">
+        <v>170</v>
+      </c>
+      <c r="C45" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1">
+        <v>40</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="100">
+        <v>170</v>
+      </c>
+      <c r="C46" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1">
+        <v>40</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="87">
+        <v>46</v>
+      </c>
+      <c r="B47" s="100">
+        <v>170</v>
+      </c>
+      <c r="C47" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="1">
+        <v>40</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="100">
+        <v>170</v>
+      </c>
+      <c r="C48" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1">
+        <v>40</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="87">
+        <v>48</v>
+      </c>
+      <c r="B49" s="100">
+        <v>170</v>
+      </c>
+      <c r="C49" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1">
+        <v>40</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="100">
+        <v>180</v>
+      </c>
+      <c r="C50" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1">
+        <v>40</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="87">
+        <v>50</v>
+      </c>
+      <c r="B51" s="100">
+        <v>180</v>
+      </c>
+      <c r="C51" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1">
+        <v>40</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="100">
+        <v>180</v>
+      </c>
+      <c r="C52" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1">
+        <v>40</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="87">
+        <v>52</v>
+      </c>
+      <c r="B53" s="100">
+        <v>180</v>
+      </c>
+      <c r="C53" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1">
+        <v>40</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="100">
+        <v>180</v>
+      </c>
+      <c r="C54" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1">
+        <v>40</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="87">
+        <v>54</v>
+      </c>
+      <c r="B55" s="100">
+        <v>180</v>
+      </c>
+      <c r="C55" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="1">
+        <v>40</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="100">
+        <v>180</v>
+      </c>
+      <c r="C56" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1">
+        <v>40</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="87">
+        <v>56</v>
+      </c>
+      <c r="B57" s="100">
+        <v>180</v>
+      </c>
+      <c r="C57" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1">
+        <v>40</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="100">
+        <v>190</v>
+      </c>
+      <c r="C58" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1">
+        <v>40</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="87">
+        <v>58</v>
+      </c>
+      <c r="B59" s="100">
+        <v>190</v>
+      </c>
+      <c r="C59" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="1">
+        <v>40</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="100">
+        <v>190</v>
+      </c>
+      <c r="C60" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1">
+        <v>40</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="87">
+        <v>60</v>
+      </c>
+      <c r="B61" s="100">
+        <v>190</v>
+      </c>
+      <c r="C61" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="1">
+        <v>40</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="100">
+        <v>190</v>
+      </c>
+      <c r="C62" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="1">
+        <v>40</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="87">
+        <v>62</v>
+      </c>
+      <c r="B63" s="100">
+        <v>190</v>
+      </c>
+      <c r="C63" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1">
+        <v>40</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="100">
+        <v>190</v>
+      </c>
+      <c r="C64" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="1">
+        <v>40</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="87">
+        <v>64</v>
+      </c>
+      <c r="B65" s="100">
+        <v>190</v>
+      </c>
+      <c r="C65" s="100">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="1">
+        <v>40</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="1">
+        <f>SUM(H2:H65)</f>
+        <v>2560</v>
+      </c>
+      <c r="I66" s="60">
+        <f>SUM(I2:I65)</f>
+        <v>25600</v>
+      </c>
+      <c r="J66" s="1">
+        <f>COUNTIF(J2:J65, "fft*")</f>
+        <v>1</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A1E516-C737-4706-B493-44836D5787D8}">
   <dimension ref="A1:I387"/>
   <sheetViews>
@@ -20452,7 +22609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45224D8D-3680-43C0-AD3D-AB34ACB57F6A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -49318,9 +51475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC94A6-A1AB-4DA9-A119-D25B8B7A6893}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -56565,7 +58720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438C2A95-A35F-4D14-B403-D3BFC24C9896}">
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -59030,10 +61187,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E82" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F82" s="82">
         <v>2</v>
@@ -59061,10 +61218,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E83" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F83" s="82">
         <v>2</v>
@@ -59092,10 +61249,10 @@
         <v>6</v>
       </c>
       <c r="D84" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F84" s="82">
         <v>2</v>
@@ -59123,10 +61280,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E85" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F85" s="82">
         <v>2</v>
@@ -59154,10 +61311,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E86" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F86" s="82">
         <v>2</v>
@@ -59185,10 +61342,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E87" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F87" s="82">
         <v>2</v>
@@ -59216,10 +61373,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F88" s="82">
         <v>2</v>
@@ -59247,10 +61404,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E89" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F89" s="82">
         <v>2</v>
@@ -59278,10 +61435,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E90" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F90" s="82">
         <v>2</v>
@@ -59309,10 +61466,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E91" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F91" s="82">
         <v>2</v>
@@ -59340,7 +61497,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E92" s="84" t="s">
         <v>20</v>
@@ -59371,7 +61528,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E93" s="84" t="s">
         <v>20</v>
@@ -59402,7 +61559,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E94" s="84" t="s">
         <v>20</v>
@@ -59433,7 +61590,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E95" s="84" t="s">
         <v>20</v>
@@ -59464,7 +61621,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E96" s="84" t="s">
         <v>20</v>
@@ -59495,7 +61652,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E97" s="84" t="s">
         <v>20</v>
@@ -59526,7 +61683,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E98" s="84" t="s">
         <v>20</v>
@@ -59557,7 +61714,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E99" s="84" t="s">
         <v>20</v>
@@ -59588,7 +61745,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E100" s="84" t="s">
         <v>20</v>
@@ -59619,7 +61776,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E101" s="84" t="s">
         <v>20</v>
@@ -59653,7 +61810,7 @@
         <v>22</v>
       </c>
       <c r="E102" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F102" s="82">
         <v>2</v>
@@ -59684,7 +61841,7 @@
         <v>22</v>
       </c>
       <c r="E103" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F103" s="82">
         <v>2</v>
@@ -59715,7 +61872,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F104" s="82">
         <v>2</v>
@@ -59746,7 +61903,7 @@
         <v>22</v>
       </c>
       <c r="E105" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F105" s="82">
         <v>2</v>
@@ -59777,7 +61934,7 @@
         <v>22</v>
       </c>
       <c r="E106" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F106" s="82">
         <v>2</v>
@@ -59808,7 +61965,7 @@
         <v>22</v>
       </c>
       <c r="E107" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F107" s="82">
         <v>2</v>
@@ -59839,7 +61996,7 @@
         <v>22</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F108" s="82">
         <v>2</v>
@@ -59870,7 +62027,7 @@
         <v>22</v>
       </c>
       <c r="E109" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F109" s="82">
         <v>2</v>
@@ -59901,7 +62058,7 @@
         <v>22</v>
       </c>
       <c r="E110" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F110" s="82">
         <v>2</v>
@@ -59932,7 +62089,7 @@
         <v>22</v>
       </c>
       <c r="E111" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F111" s="82">
         <v>2</v>
@@ -60270,10 +62427,10 @@
         <v>5</v>
       </c>
       <c r="D122" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E122" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F122" s="82">
         <v>2</v>
@@ -60301,10 +62458,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E123" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F123" s="82">
         <v>2</v>
@@ -60332,10 +62489,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F124" s="82">
         <v>2</v>
@@ -60363,10 +62520,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E125" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F125" s="82">
         <v>2</v>
@@ -60394,10 +62551,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E126" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F126" s="82">
         <v>2</v>
@@ -60425,10 +62582,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E127" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F127" s="82">
         <v>2</v>
@@ -60456,10 +62613,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F128" s="82">
         <v>2</v>
@@ -60487,10 +62644,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E129" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F129" s="82">
         <v>2</v>
@@ -60518,10 +62675,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E130" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F130" s="82">
         <v>2</v>
@@ -60549,10 +62706,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E131" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F131" s="82">
         <v>2</v>
@@ -60580,7 +62737,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E132" s="84" t="s">
         <v>20</v>
@@ -60611,7 +62768,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E133" s="84" t="s">
         <v>20</v>
@@ -60642,7 +62799,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E134" s="84" t="s">
         <v>20</v>
@@ -60673,7 +62830,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E135" s="84" t="s">
         <v>20</v>
@@ -60704,7 +62861,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E136" s="84" t="s">
         <v>20</v>
@@ -60735,7 +62892,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E137" s="84" t="s">
         <v>20</v>
@@ -60766,7 +62923,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E138" s="84" t="s">
         <v>20</v>
@@ -60797,7 +62954,7 @@
         <v>5</v>
       </c>
       <c r="D139" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E139" s="84" t="s">
         <v>20</v>
@@ -60828,7 +62985,7 @@
         <v>5</v>
       </c>
       <c r="D140" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E140" s="84" t="s">
         <v>20</v>
@@ -60859,7 +63016,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E141" s="84" t="s">
         <v>20</v>
@@ -60893,7 +63050,7 @@
         <v>22</v>
       </c>
       <c r="E142" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F142" s="82">
         <v>2</v>
@@ -60924,7 +63081,7 @@
         <v>22</v>
       </c>
       <c r="E143" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F143" s="82">
         <v>2</v>
@@ -60955,7 +63112,7 @@
         <v>22</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F144" s="82">
         <v>2</v>
@@ -60986,7 +63143,7 @@
         <v>22</v>
       </c>
       <c r="E145" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F145" s="82">
         <v>2</v>
@@ -61017,7 +63174,7 @@
         <v>22</v>
       </c>
       <c r="E146" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F146" s="82">
         <v>2</v>
@@ -61048,7 +63205,7 @@
         <v>22</v>
       </c>
       <c r="E147" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F147" s="82">
         <v>2</v>
@@ -61079,7 +63236,7 @@
         <v>22</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F148" s="82">
         <v>2</v>
@@ -61110,7 +63267,7 @@
         <v>22</v>
       </c>
       <c r="E149" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F149" s="82">
         <v>2</v>
@@ -61141,7 +63298,7 @@
         <v>22</v>
       </c>
       <c r="E150" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F150" s="82">
         <v>2</v>
@@ -61172,7 +63329,7 @@
         <v>22</v>
       </c>
       <c r="E151" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F151" s="82">
         <v>2</v>
@@ -61510,10 +63667,10 @@
         <v>6</v>
       </c>
       <c r="D162" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E162" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F162" s="82">
         <v>2</v>
@@ -61541,10 +63698,10 @@
         <v>6</v>
       </c>
       <c r="D163" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E163" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F163" s="82">
         <v>2</v>
@@ -61572,10 +63729,10 @@
         <v>6</v>
       </c>
       <c r="D164" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F164" s="82">
         <v>2</v>
@@ -61603,10 +63760,10 @@
         <v>6</v>
       </c>
       <c r="D165" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E165" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F165" s="82">
         <v>2</v>
@@ -61634,10 +63791,10 @@
         <v>6</v>
       </c>
       <c r="D166" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E166" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F166" s="82">
         <v>2</v>
@@ -61665,10 +63822,10 @@
         <v>6</v>
       </c>
       <c r="D167" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E167" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F167" s="82">
         <v>2</v>
@@ -61696,10 +63853,10 @@
         <v>6</v>
       </c>
       <c r="D168" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F168" s="82">
         <v>2</v>
@@ -61727,10 +63884,10 @@
         <v>6</v>
       </c>
       <c r="D169" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E169" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F169" s="82">
         <v>2</v>
@@ -61758,10 +63915,10 @@
         <v>6</v>
       </c>
       <c r="D170" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E170" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F170" s="82">
         <v>2</v>
@@ -61789,10 +63946,10 @@
         <v>6</v>
       </c>
       <c r="D171" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E171" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F171" s="82">
         <v>2</v>
@@ -61820,7 +63977,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E172" s="84" t="s">
         <v>20</v>
@@ -61851,7 +64008,7 @@
         <v>5</v>
       </c>
       <c r="D173" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E173" s="84" t="s">
         <v>20</v>
@@ -61882,7 +64039,7 @@
         <v>5</v>
       </c>
       <c r="D174" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E174" s="84" t="s">
         <v>20</v>
@@ -61913,7 +64070,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E175" s="84" t="s">
         <v>20</v>
@@ -61944,7 +64101,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E176" s="84" t="s">
         <v>20</v>
@@ -61975,7 +64132,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E177" s="84" t="s">
         <v>20</v>
@@ -62006,7 +64163,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E178" s="84" t="s">
         <v>20</v>
@@ -62037,7 +64194,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E179" s="84" t="s">
         <v>20</v>
@@ -62068,7 +64225,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>20</v>
@@ -62099,7 +64256,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>20</v>
@@ -62133,7 +64290,7 @@
         <v>22</v>
       </c>
       <c r="E182" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F182" s="82">
         <v>2</v>
@@ -62164,7 +64321,7 @@
         <v>22</v>
       </c>
       <c r="E183" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F183" s="82">
         <v>2</v>
@@ -62195,7 +64352,7 @@
         <v>22</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F184" s="82">
         <v>2</v>
@@ -62226,7 +64383,7 @@
         <v>22</v>
       </c>
       <c r="E185" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F185" s="82">
         <v>2</v>
@@ -62257,7 +64414,7 @@
         <v>22</v>
       </c>
       <c r="E186" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F186" s="82">
         <v>2</v>
@@ -62288,7 +64445,7 @@
         <v>22</v>
       </c>
       <c r="E187" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F187" s="82">
         <v>2</v>
@@ -62319,7 +64476,7 @@
         <v>22</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F188" s="82">
         <v>2</v>
@@ -62350,7 +64507,7 @@
         <v>22</v>
       </c>
       <c r="E189" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F189" s="82">
         <v>2</v>
@@ -62381,7 +64538,7 @@
         <v>22</v>
       </c>
       <c r="E190" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F190" s="82">
         <v>2</v>
@@ -62412,7 +64569,7 @@
         <v>22</v>
       </c>
       <c r="E191" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F191" s="82">
         <v>2</v>
@@ -62750,10 +64907,10 @@
         <v>5</v>
       </c>
       <c r="D202" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E202" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F202" s="82">
         <v>2</v>
@@ -62781,10 +64938,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E203" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F203" s="82">
         <v>2</v>
@@ -62812,10 +64969,10 @@
         <v>5</v>
       </c>
       <c r="D204" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E204" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F204" s="82">
         <v>2</v>
@@ -62843,10 +65000,10 @@
         <v>5</v>
       </c>
       <c r="D205" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E205" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F205" s="82">
         <v>2</v>
@@ -62874,10 +65031,10 @@
         <v>5</v>
       </c>
       <c r="D206" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E206" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F206" s="82">
         <v>2</v>
@@ -62905,10 +65062,10 @@
         <v>5</v>
       </c>
       <c r="D207" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E207" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F207" s="82">
         <v>2</v>
@@ -62936,10 +65093,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E208" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F208" s="82">
         <v>2</v>
@@ -62967,10 +65124,10 @@
         <v>5</v>
       </c>
       <c r="D209" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E209" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F209" s="82">
         <v>2</v>
@@ -62998,10 +65155,10 @@
         <v>5</v>
       </c>
       <c r="D210" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E210" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F210" s="82">
         <v>2</v>
@@ -63029,10 +65186,10 @@
         <v>5</v>
       </c>
       <c r="D211" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E211" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F211" s="82">
         <v>2</v>
@@ -63060,7 +65217,7 @@
         <v>6</v>
       </c>
       <c r="D212" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E212" s="84" t="s">
         <v>20</v>
@@ -63091,7 +65248,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E213" s="84" t="s">
         <v>20</v>
@@ -63122,7 +65279,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E214" s="84" t="s">
         <v>20</v>
@@ -63153,7 +65310,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E215" s="84" t="s">
         <v>20</v>
@@ -63184,7 +65341,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E216" s="84" t="s">
         <v>20</v>
@@ -63215,7 +65372,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E217" s="84" t="s">
         <v>20</v>
@@ -63246,7 +65403,7 @@
         <v>6</v>
       </c>
       <c r="D218" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E218" s="84" t="s">
         <v>20</v>
@@ -63277,7 +65434,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E219" s="84" t="s">
         <v>20</v>
@@ -63308,7 +65465,7 @@
         <v>6</v>
       </c>
       <c r="D220" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E220" s="84" t="s">
         <v>20</v>
@@ -63339,7 +65496,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E221" s="84" t="s">
         <v>20</v>
@@ -63373,7 +65530,7 @@
         <v>22</v>
       </c>
       <c r="E222" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F222" s="82">
         <v>2</v>
@@ -63404,7 +65561,7 @@
         <v>22</v>
       </c>
       <c r="E223" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F223" s="82">
         <v>2</v>
@@ -63435,7 +65592,7 @@
         <v>22</v>
       </c>
       <c r="E224" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F224" s="82">
         <v>2</v>
@@ -63466,7 +65623,7 @@
         <v>22</v>
       </c>
       <c r="E225" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F225" s="82">
         <v>2</v>
@@ -63497,7 +65654,7 @@
         <v>22</v>
       </c>
       <c r="E226" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F226" s="82">
         <v>2</v>
@@ -63528,7 +65685,7 @@
         <v>22</v>
       </c>
       <c r="E227" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F227" s="82">
         <v>2</v>
@@ -63559,7 +65716,7 @@
         <v>22</v>
       </c>
       <c r="E228" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F228" s="82">
         <v>2</v>
@@ -63590,7 +65747,7 @@
         <v>22</v>
       </c>
       <c r="E229" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F229" s="82">
         <v>2</v>
@@ -63621,7 +65778,7 @@
         <v>22</v>
       </c>
       <c r="E230" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F230" s="82">
         <v>2</v>
@@ -63652,7 +65809,7 @@
         <v>22</v>
       </c>
       <c r="E231" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F231" s="82">
         <v>2</v>
@@ -63990,10 +66147,10 @@
         <v>6</v>
       </c>
       <c r="D242" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E242" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F242" s="82">
         <v>2</v>
@@ -64021,10 +66178,10 @@
         <v>6</v>
       </c>
       <c r="D243" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E243" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F243" s="82">
         <v>2</v>
@@ -64052,10 +66209,10 @@
         <v>6</v>
       </c>
       <c r="D244" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E244" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F244" s="82">
         <v>2</v>
@@ -64083,10 +66240,10 @@
         <v>6</v>
       </c>
       <c r="D245" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E245" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F245" s="82">
         <v>2</v>
@@ -64114,10 +66271,10 @@
         <v>6</v>
       </c>
       <c r="D246" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E246" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F246" s="82">
         <v>2</v>
@@ -64145,10 +66302,10 @@
         <v>6</v>
       </c>
       <c r="D247" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E247" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F247" s="82">
         <v>2</v>
@@ -64176,10 +66333,10 @@
         <v>6</v>
       </c>
       <c r="D248" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E248" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F248" s="82">
         <v>2</v>
@@ -64207,10 +66364,10 @@
         <v>6</v>
       </c>
       <c r="D249" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E249" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F249" s="82">
         <v>2</v>
@@ -64238,10 +66395,10 @@
         <v>6</v>
       </c>
       <c r="D250" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E250" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F250" s="82">
         <v>2</v>
@@ -64269,10 +66426,10 @@
         <v>6</v>
       </c>
       <c r="D251" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E251" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F251" s="82">
         <v>2</v>
@@ -64300,7 +66457,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E252" s="84" t="s">
         <v>20</v>
@@ -64331,7 +66488,7 @@
         <v>6</v>
       </c>
       <c r="D253" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E253" s="84" t="s">
         <v>20</v>
@@ -64362,7 +66519,7 @@
         <v>6</v>
       </c>
       <c r="D254" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E254" s="84" t="s">
         <v>20</v>
@@ -64393,7 +66550,7 @@
         <v>6</v>
       </c>
       <c r="D255" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E255" s="84" t="s">
         <v>20</v>
@@ -64424,7 +66581,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E256" s="84" t="s">
         <v>20</v>
@@ -64455,7 +66612,7 @@
         <v>6</v>
       </c>
       <c r="D257" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E257" s="84" t="s">
         <v>20</v>
@@ -64486,7 +66643,7 @@
         <v>6</v>
       </c>
       <c r="D258" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E258" s="84" t="s">
         <v>20</v>
@@ -64517,7 +66674,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E259" s="84" t="s">
         <v>20</v>
@@ -64548,7 +66705,7 @@
         <v>6</v>
       </c>
       <c r="D260" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E260" s="84" t="s">
         <v>20</v>
@@ -64579,7 +66736,7 @@
         <v>6</v>
       </c>
       <c r="D261" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E261" s="84" t="s">
         <v>20</v>
@@ -64613,7 +66770,7 @@
         <v>22</v>
       </c>
       <c r="E262" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F262" s="82">
         <v>2</v>
@@ -64644,7 +66801,7 @@
         <v>22</v>
       </c>
       <c r="E263" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F263" s="82">
         <v>2</v>
@@ -64675,7 +66832,7 @@
         <v>22</v>
       </c>
       <c r="E264" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F264" s="82">
         <v>2</v>
@@ -64706,7 +66863,7 @@
         <v>22</v>
       </c>
       <c r="E265" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F265" s="82">
         <v>2</v>
@@ -64737,7 +66894,7 @@
         <v>22</v>
       </c>
       <c r="E266" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F266" s="82">
         <v>2</v>
@@ -64768,7 +66925,7 @@
         <v>22</v>
       </c>
       <c r="E267" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F267" s="82">
         <v>2</v>
@@ -64799,7 +66956,7 @@
         <v>22</v>
       </c>
       <c r="E268" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F268" s="82">
         <v>2</v>
@@ -64830,7 +66987,7 @@
         <v>22</v>
       </c>
       <c r="E269" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F269" s="82">
         <v>2</v>
@@ -64861,7 +67018,7 @@
         <v>22</v>
       </c>
       <c r="E270" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F270" s="82">
         <v>2</v>
@@ -64892,7 +67049,7 @@
         <v>22</v>
       </c>
       <c r="E271" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F271" s="82">
         <v>2</v>
@@ -65230,10 +67387,10 @@
         <v>5</v>
       </c>
       <c r="D282" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E282" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F282" s="82">
         <v>2</v>
@@ -65261,10 +67418,10 @@
         <v>5</v>
       </c>
       <c r="D283" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E283" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F283" s="82">
         <v>2</v>
@@ -65292,10 +67449,10 @@
         <v>5</v>
       </c>
       <c r="D284" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E284" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F284" s="82">
         <v>2</v>
@@ -65323,10 +67480,10 @@
         <v>5</v>
       </c>
       <c r="D285" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E285" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F285" s="82">
         <v>2</v>
@@ -65354,10 +67511,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E286" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F286" s="82">
         <v>2</v>
@@ -65385,10 +67542,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E287" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F287" s="82">
         <v>2</v>
@@ -65416,10 +67573,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E288" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F288" s="82">
         <v>2</v>
@@ -65447,10 +67604,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E289" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F289" s="82">
         <v>2</v>
@@ -65478,10 +67635,10 @@
         <v>5</v>
       </c>
       <c r="D290" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E290" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F290" s="82">
         <v>2</v>
@@ -65509,10 +67666,10 @@
         <v>5</v>
       </c>
       <c r="D291" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E291" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F291" s="82">
         <v>2</v>
@@ -65540,7 +67697,7 @@
         <v>5</v>
       </c>
       <c r="D292" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E292" s="84" t="s">
         <v>20</v>
@@ -65571,7 +67728,7 @@
         <v>5</v>
       </c>
       <c r="D293" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E293" s="84" t="s">
         <v>20</v>
@@ -65602,7 +67759,7 @@
         <v>5</v>
       </c>
       <c r="D294" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E294" s="84" t="s">
         <v>20</v>
@@ -65633,7 +67790,7 @@
         <v>5</v>
       </c>
       <c r="D295" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E295" s="84" t="s">
         <v>20</v>
@@ -65664,7 +67821,7 @@
         <v>5</v>
       </c>
       <c r="D296" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E296" s="84" t="s">
         <v>20</v>
@@ -65695,7 +67852,7 @@
         <v>5</v>
       </c>
       <c r="D297" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E297" s="84" t="s">
         <v>20</v>
@@ -65726,7 +67883,7 @@
         <v>5</v>
       </c>
       <c r="D298" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E298" s="84" t="s">
         <v>20</v>
@@ -65757,7 +67914,7 @@
         <v>5</v>
       </c>
       <c r="D299" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E299" s="84" t="s">
         <v>20</v>
@@ -65788,7 +67945,7 @@
         <v>5</v>
       </c>
       <c r="D300" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E300" s="84" t="s">
         <v>20</v>
@@ -65819,7 +67976,7 @@
         <v>5</v>
       </c>
       <c r="D301" s="84" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E301" s="84" t="s">
         <v>20</v>
@@ -65853,7 +68010,7 @@
         <v>22</v>
       </c>
       <c r="E302" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F302" s="82">
         <v>2</v>
@@ -65884,7 +68041,7 @@
         <v>22</v>
       </c>
       <c r="E303" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F303" s="82">
         <v>2</v>
@@ -65915,7 +68072,7 @@
         <v>22</v>
       </c>
       <c r="E304" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F304" s="82">
         <v>2</v>
@@ -65946,7 +68103,7 @@
         <v>22</v>
       </c>
       <c r="E305" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F305" s="82">
         <v>2</v>
@@ -65977,7 +68134,7 @@
         <v>22</v>
       </c>
       <c r="E306" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F306" s="82">
         <v>2</v>
@@ -66008,7 +68165,7 @@
         <v>22</v>
       </c>
       <c r="E307" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F307" s="82">
         <v>2</v>
@@ -66039,7 +68196,7 @@
         <v>22</v>
       </c>
       <c r="E308" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F308" s="82">
         <v>2</v>
@@ -66070,7 +68227,7 @@
         <v>22</v>
       </c>
       <c r="E309" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F309" s="82">
         <v>2</v>
@@ -66101,7 +68258,7 @@
         <v>22</v>
       </c>
       <c r="E310" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F310" s="82">
         <v>2</v>
@@ -66132,7 +68289,7 @@
         <v>22</v>
       </c>
       <c r="E311" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F311" s="82">
         <v>2</v>
@@ -66494,6 +68651,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -69030,10 +71188,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E82" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F82" s="82">
         <v>40</v>
@@ -69061,7 +71219,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E83" s="84" t="s">
         <v>20</v>
@@ -69095,7 +71253,7 @@
         <v>22</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F84" s="82">
         <v>40</v>
@@ -69154,10 +71312,10 @@
         <v>5</v>
       </c>
       <c r="D86" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E86" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F86" s="82">
         <v>40</v>
@@ -69185,7 +71343,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E87" s="84" t="s">
         <v>20</v>
@@ -69219,7 +71377,7 @@
         <v>22</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F88" s="82">
         <v>40</v>
@@ -69278,10 +71436,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E90" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F90" s="82">
         <v>40</v>
@@ -69309,7 +71467,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E91" s="84" t="s">
         <v>20</v>
@@ -69343,7 +71501,7 @@
         <v>22</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F92" s="82">
         <v>40</v>
@@ -69402,10 +71560,10 @@
         <v>5</v>
       </c>
       <c r="D94" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E94" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F94" s="82">
         <v>40</v>
@@ -69433,7 +71591,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E95" s="84" t="s">
         <v>20</v>
@@ -69467,7 +71625,7 @@
         <v>22</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F96" s="82">
         <v>40</v>
@@ -69526,10 +71684,10 @@
         <v>6</v>
       </c>
       <c r="D98" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E98" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F98" s="82">
         <v>40</v>
@@ -69557,7 +71715,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E99" s="84" t="s">
         <v>20</v>
@@ -69591,7 +71749,7 @@
         <v>22</v>
       </c>
       <c r="E100" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F100" s="82">
         <v>40</v>
@@ -69650,10 +71808,10 @@
         <v>5</v>
       </c>
       <c r="D102" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E102" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F102" s="82">
         <v>40</v>
@@ -69681,7 +71839,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E103" s="84" t="s">
         <v>20</v>
@@ -69715,7 +71873,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F104" s="82">
         <v>40</v>
@@ -69774,10 +71932,10 @@
         <v>6</v>
       </c>
       <c r="D106" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E106" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F106" s="82">
         <v>40</v>
@@ -69804,7 +71962,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E107" s="84" t="s">
         <v>20</v>
@@ -69837,7 +71995,7 @@
         <v>22</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F108" s="82">
         <v>40</v>
@@ -69894,10 +72052,10 @@
         <v>5</v>
       </c>
       <c r="D110" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E110" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F110" s="82">
         <v>40</v>
@@ -69924,7 +72082,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E111" s="84" t="s">
         <v>20</v>
@@ -69957,7 +72115,7 @@
         <v>22</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F112" s="82">
         <v>40</v>
@@ -70014,10 +72172,10 @@
         <v>6</v>
       </c>
       <c r="D114" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E114" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F114" s="82">
         <v>40</v>
@@ -70045,7 +72203,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E115" s="84" t="s">
         <v>20</v>
@@ -70079,7 +72237,7 @@
         <v>22</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F116" s="82">
         <v>40</v>
@@ -70138,10 +72296,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E118" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F118" s="82">
         <v>40</v>
@@ -70169,7 +72327,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E119" s="84" t="s">
         <v>20</v>
@@ -70203,7 +72361,7 @@
         <v>22</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F120" s="82">
         <v>40</v>
@@ -70262,10 +72420,10 @@
         <v>6</v>
       </c>
       <c r="D122" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E122" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F122" s="82">
         <v>40</v>
@@ -70293,7 +72451,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E123" s="84" t="s">
         <v>20</v>
@@ -70327,7 +72485,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F124" s="82">
         <v>40</v>
@@ -70386,10 +72544,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E126" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F126" s="82">
         <v>40</v>
@@ -70417,7 +72575,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="81" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E127" s="84" t="s">
         <v>20</v>
@@ -70451,7 +72609,7 @@
         <v>22</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F128" s="82">
         <v>40</v>
@@ -70541,7 +72699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2459949-47C2-499E-B299-8B154CE53211}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -70607,7 +72767,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E2" s="93" t="s">
         <v>18</v>
@@ -70644,7 +72804,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E3" s="93" t="s">
         <v>18</v>
@@ -70681,7 +72841,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E4" s="93" t="s">
         <v>18</v>
@@ -70718,7 +72878,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E5" s="93" t="s">
         <v>18</v>
@@ -70755,7 +72915,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E6" s="93" t="s">
         <v>18</v>
@@ -70792,7 +72952,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E7" s="93" t="s">
         <v>18</v>
@@ -70829,7 +72989,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E8" s="93" t="s">
         <v>18</v>
@@ -70866,7 +73026,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E9" s="93" t="s">
         <v>18</v>
@@ -70903,7 +73063,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E10" s="93" t="s">
         <v>18</v>
@@ -70940,7 +73100,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E11" s="93" t="s">
         <v>18</v>
@@ -70977,7 +73137,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E12" s="93" t="s">
         <v>18</v>
@@ -71014,7 +73174,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E13" s="93" t="s">
         <v>18</v>
@@ -71051,7 +73211,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>18</v>
@@ -71088,7 +73248,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>18</v>
@@ -71125,7 +73285,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E16" s="93" t="s">
         <v>18</v>
@@ -71162,7 +73322,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E17" s="93" t="s">
         <v>18</v>
@@ -71199,7 +73359,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E18" s="93" t="s">
         <v>18</v>
@@ -71236,7 +73396,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E19" s="93" t="s">
         <v>18</v>
@@ -71273,7 +73433,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E20" s="93" t="s">
         <v>18</v>
@@ -71310,7 +73470,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>18</v>
@@ -71347,7 +73507,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E22" s="93" t="s">
         <v>18</v>
@@ -71384,7 +73544,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E23" s="93" t="s">
         <v>18</v>
@@ -71421,7 +73581,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E24" s="93" t="s">
         <v>20</v>
@@ -71458,7 +73618,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E25" s="93" t="s">
         <v>20</v>
@@ -71495,7 +73655,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E26" s="93" t="s">
         <v>20</v>
@@ -71532,7 +73692,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E27" s="93" t="s">
         <v>20</v>
@@ -71569,7 +73729,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E28" s="93" t="s">
         <v>20</v>
@@ -71606,7 +73766,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E29" s="93" t="s">
         <v>20</v>
@@ -71643,7 +73803,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E30" s="93" t="s">
         <v>20</v>
@@ -71680,7 +73840,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E31" s="93" t="s">
         <v>20</v>
@@ -71717,7 +73877,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E32" s="93" t="s">
         <v>20</v>
@@ -71754,7 +73914,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E33" s="93" t="s">
         <v>20</v>
@@ -71791,7 +73951,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E34" s="93" t="s">
         <v>20</v>
@@ -71828,7 +73988,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E35" s="93" t="s">
         <v>20</v>
@@ -71865,7 +74025,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E36" s="93" t="s">
         <v>20</v>
@@ -71902,7 +74062,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E37" s="93" t="s">
         <v>20</v>
@@ -71939,7 +74099,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E38" s="93" t="s">
         <v>20</v>
@@ -71976,7 +74136,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E39" s="93" t="s">
         <v>20</v>
@@ -72013,7 +74173,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E40" s="93" t="s">
         <v>20</v>
@@ -72050,7 +74210,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E41" s="93" t="s">
         <v>20</v>
@@ -72087,7 +74247,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E42" s="93" t="s">
         <v>20</v>
@@ -72124,7 +74284,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E43" s="93" t="s">
         <v>20</v>
@@ -72161,7 +74321,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E44" s="93" t="s">
         <v>20</v>
@@ -72198,7 +74358,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E45" s="93" t="s">
         <v>20</v>
@@ -72235,7 +74395,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E46" s="93" t="s">
         <v>20</v>
@@ -72272,7 +74432,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E47" s="93" t="s">
         <v>20</v>
@@ -72309,7 +74469,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E48" s="93" t="s">
         <v>20</v>
@@ -72346,7 +74506,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E49" s="93" t="s">
         <v>20</v>
@@ -72383,7 +74543,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E50" s="93" t="s">
         <v>20</v>
@@ -72420,7 +74580,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E51" s="93" t="s">
         <v>20</v>
@@ -72457,7 +74617,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E52" s="93" t="s">
         <v>20</v>
@@ -72494,7 +74654,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E53" s="93" t="s">
         <v>20</v>
@@ -72531,7 +74691,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E54" s="93" t="s">
         <v>20</v>
@@ -72568,7 +74728,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E55" s="93" t="s">
         <v>20</v>
@@ -72605,7 +74765,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E56" s="93" t="s">
         <v>20</v>
@@ -72642,7 +74802,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E57" s="93" t="s">
         <v>20</v>
@@ -72679,7 +74839,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E58" s="93" t="s">
         <v>20</v>
@@ -72716,7 +74876,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E59" s="93" t="s">
         <v>20</v>
@@ -72753,7 +74913,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E60" s="93" t="s">
         <v>20</v>
@@ -72790,7 +74950,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E61" s="93" t="s">
         <v>20</v>
@@ -72827,7 +74987,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E62" s="93" t="s">
         <v>20</v>
@@ -72864,7 +75024,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E63" s="93" t="s">
         <v>20</v>
@@ -72901,7 +75061,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E64" s="93" t="s">
         <v>20</v>
@@ -72938,7 +75098,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E65" s="93" t="s">
         <v>20</v>
@@ -72975,10 +75135,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F66" s="93">
         <v>10</v>
@@ -73012,10 +75172,10 @@
         <v>5</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F67" s="93">
         <v>10</v>
@@ -73049,10 +75209,10 @@
         <v>5</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E68" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F68" s="93">
         <v>10</v>
@@ -73086,10 +75246,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F69" s="93">
         <v>10</v>
@@ -73123,10 +75283,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F70" s="93">
         <v>10</v>
@@ -73160,10 +75320,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E71" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F71" s="93">
         <v>10</v>
@@ -73197,10 +75357,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E72" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F72" s="93">
         <v>10</v>
@@ -73234,10 +75394,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F73" s="93">
         <v>10</v>
@@ -73271,10 +75431,10 @@
         <v>5</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E74" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F74" s="93">
         <v>10</v>
@@ -73308,10 +75468,10 @@
         <v>5</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E75" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F75" s="93">
         <v>10</v>
@@ -73345,10 +75505,10 @@
         <v>5</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E76" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F76" s="93">
         <v>10</v>
@@ -73382,10 +75542,10 @@
         <v>5</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E77" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F77" s="93">
         <v>10</v>
@@ -73419,10 +75579,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F78" s="93">
         <v>10</v>
@@ -73456,10 +75616,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E79" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F79" s="93">
         <v>10</v>
@@ -73493,10 +75653,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F80" s="93">
         <v>10</v>
@@ -73530,10 +75690,10 @@
         <v>5</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E81" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F81" s="93">
         <v>10</v>
@@ -73567,10 +75727,10 @@
         <v>5</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E82" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F82" s="93">
         <v>10</v>
@@ -73604,10 +75764,10 @@
         <v>5</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E83" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F83" s="93">
         <v>10</v>
@@ -73641,10 +75801,10 @@
         <v>5</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F84" s="93">
         <v>10</v>
@@ -73678,10 +75838,10 @@
         <v>5</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E85" s="93" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="F85" s="93">
         <v>10</v>
